--- a/blog/usa_population/data_usa_population_age.xlsx
+++ b/blog/usa_population/data_usa_population_age.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="2003" sheetId="10" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="2019" sheetId="8" r:id="rId17"/>
     <sheet name="2020" sheetId="6" r:id="rId18"/>
     <sheet name="2021" sheetId="7" r:id="rId19"/>
+    <sheet name="2022" sheetId="25" r:id="rId20"/>
+    <sheet name="2023" sheetId="26" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="IDX" localSheetId="0">'2003'!$A$2</definedName>
@@ -37,13 +39,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="13">'2016'!$A$1:$G$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="17">'2020'!$A$1:$H$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="18">'2021'!$A$1:$I$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">'2022'!$A$1:$H$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">'2023'!$A$1:$H$54</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="173">
   <si>
     <t>Internet release date:  August 2018</t>
   </si>
@@ -1908,6 +1912,51 @@
   </si>
   <si>
     <t>Table 1. Population by Age and Sex: 2009</t>
+  </si>
+  <si>
+    <t>Internet release date: August 2023</t>
+  </si>
+  <si>
+    <t>SOURCE: U.S. Census Bureau, Current Population Survey, Annual Social and Economic Supplement, 2022.</t>
+  </si>
+  <si>
+    <t>The U.S. Census Bureau reviewed this data product for unauthorized disclosure of confidential information and approved the disclosure avoidance practices applied to this release. CBDRB‑FY23‑0129.</t>
+  </si>
+  <si>
+    <t>Information on confidentiality protection, sampling error, nonsampling error, and definitions is available at &lt;https://www2.census.gov/programs-surveys/cps/techdocs/cpsmar22.pdf&gt;.</t>
+  </si>
+  <si>
+    <t>Data users should exercise caution when comparing estimates for data collected in 2022 to previous years due to changes in population controls. The updated population controls use a Blended Base that draws on the 2020 Census, 2020 Demographic Analysis Estimates, and Vintage 2020 Postcensal Population Estimates.</t>
+  </si>
+  <si>
+    <t>Data users should exercise caution when comparing estimates for data collected in 2020 to 2022 to those from previous years due to the effects that the coronavirus (COVID-19) had on interviewing and response rates. Census Bureau researchers have documented that there are more (and larger) differences between respondents and nonrespondents in 2020, 2021, and 2022 than in earlier years. For more details, refer to &lt;https://www.census.gov/newsroom/blogs/research-matters/2022/09/how-did-the-pandemic-affect-survey-response.html&gt;.</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Table 1. Population by Age and Sex: 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet release date: May 2024 </t>
+  </si>
+  <si>
+    <t>SOURCE: U.S. Census Bureau, Current Population Survey, Annual Social and Economic Supplement, 2023.</t>
+  </si>
+  <si>
+    <t>The U.S. Census Bureau reviewed this data product for unauthorized disclosure of confidential information and approved the disclosure avoidance practices applied to this release. CBDRB-FY24-0042.</t>
+  </si>
+  <si>
+    <t>Information on confidentiality protection, sampling error, nonsampling error, and definitions is available at &lt;https://www2.census.gov/programs-surveys/cps/techdocs/cpsmar23.pdf&gt;.</t>
+  </si>
+  <si>
+    <t>Data users should exercise caution when comparing estimates for data collected in 2022 and later to previous years due to changes in population controls. The updated population controls use a Blended Base that draws on the 2020 Census, 2020 Demographic Analysis Estimates, and Vintage 2020 Postcensal Population Estimates.</t>
+  </si>
+  <si>
+    <t>Data users should exercise caution when comparing estimates for data collected in 2020 to 2023 to those from previous years due to the effects that the coronavirus (COVID-19) had on interviewing and response rates. Census Bureau researchers have documented that there are more (and larger) differences between respondents and nonrespondents in the 2020 to 2023 surveys than in earlier years. For more details, refer to &lt;https://www.census.gov/newsroom/blogs/research-matters/2023/09/using-administrative-data-nonresponse-cps-asec.html&gt;.</t>
+  </si>
+  <si>
+    <t>Table 1. Population by Age and Sex: 2023</t>
   </si>
 </sst>
 </file>
@@ -2475,7 +2524,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2797,6 +2846,74 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2839,16 +2956,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2857,8 +2971,11 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2947,8 +3064,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3270,46 +3402,46 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="154" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="129" t="s">
+      <c r="C5" s="158"/>
+      <c r="D5" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="129" t="s">
+      <c r="E5" s="158"/>
+      <c r="F5" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="130"/>
+      <c r="G5" s="158"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="128"/>
+      <c r="A6" s="156"/>
       <c r="B6" s="84" t="s">
         <v>33</v>
       </c>
@@ -3330,7 +3462,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="172" t="s">
+      <c r="A7" s="125" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="83">
@@ -3653,12 +3785,12 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="82"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="124"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="152"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="81" t="s">
@@ -3810,26 +3942,26 @@
       <c r="B29" s="76"/>
     </row>
     <row r="30" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A30" s="125" t="s">
+      <c r="A30" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A32" s="126" t="s">
+      <c r="A32" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="75" t="s">
@@ -3881,26 +4013,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="181" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
     </row>
     <row r="3" spans="1:8" ht="14.1" customHeight="1">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="36"/>
@@ -3912,24 +4044,24 @@
       <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="149" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="149" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="179"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="148"/>
+      <c r="A6" s="176"/>
       <c r="B6" s="30" t="s">
         <v>33</v>
       </c>
@@ -4595,15 +4727,15 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="14.25" customHeight="1">
@@ -4617,15 +4749,15 @@
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="30" customHeight="1">
-      <c r="A39" s="154" t="s">
+      <c r="A39" s="182" t="s">
         <v>148</v>
       </c>
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="144"/>
+      <c r="B39" s="172"/>
+      <c r="C39" s="172"/>
+      <c r="D39" s="172"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="172"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8">
@@ -4683,26 +4815,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="181" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
     </row>
     <row r="3" spans="1:8" ht="14.1" customHeight="1">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="36"/>
@@ -4714,24 +4846,24 @@
       <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="149" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="149" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="179"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="148"/>
+      <c r="A6" s="176"/>
       <c r="B6" s="30" t="s">
         <v>33</v>
       </c>
@@ -5392,15 +5524,15 @@
       <c r="G35" s="13"/>
     </row>
     <row r="37" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="14.25" customHeight="1">
@@ -5436,15 +5568,15 @@
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="154" t="s">
+      <c r="A41" s="182" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8">
@@ -5501,26 +5633,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="181" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
     </row>
     <row r="3" spans="1:8" ht="14.1" customHeight="1">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="36"/>
@@ -5532,24 +5664,24 @@
       <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="149" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="149" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="179"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="148"/>
+      <c r="A6" s="176"/>
       <c r="B6" s="30" t="s">
         <v>33</v>
       </c>
@@ -6210,15 +6342,15 @@
       <c r="G35" s="13"/>
     </row>
     <row r="37" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="14.25" customHeight="1">
@@ -6254,15 +6386,15 @@
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" ht="30" customHeight="1">
-      <c r="A41" s="154" t="s">
+      <c r="A41" s="182" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8">
@@ -6278,69 +6410,69 @@
       <c r="H42" s="4"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="155" t="s">
+      <c r="A44" s="183" t="s">
         <v>137</v>
       </c>
-      <c r="B44" s="155"/>
-      <c r="C44" s="155"/>
-      <c r="D44" s="155"/>
-      <c r="E44" s="155"/>
-      <c r="F44" s="155"/>
-      <c r="G44" s="155"/>
+      <c r="B44" s="183"/>
+      <c r="C44" s="183"/>
+      <c r="D44" s="183"/>
+      <c r="E44" s="183"/>
+      <c r="F44" s="183"/>
+      <c r="G44" s="183"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="155"/>
-      <c r="B45" s="155"/>
-      <c r="C45" s="155"/>
-      <c r="D45" s="155"/>
-      <c r="E45" s="155"/>
-      <c r="F45" s="155"/>
-      <c r="G45" s="155"/>
+      <c r="A45" s="183"/>
+      <c r="B45" s="183"/>
+      <c r="C45" s="183"/>
+      <c r="D45" s="183"/>
+      <c r="E45" s="183"/>
+      <c r="F45" s="183"/>
+      <c r="G45" s="183"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="155"/>
-      <c r="B46" s="155"/>
-      <c r="C46" s="155"/>
-      <c r="D46" s="155"/>
-      <c r="E46" s="155"/>
-      <c r="F46" s="155"/>
-      <c r="G46" s="155"/>
+      <c r="A46" s="183"/>
+      <c r="B46" s="183"/>
+      <c r="C46" s="183"/>
+      <c r="D46" s="183"/>
+      <c r="E46" s="183"/>
+      <c r="F46" s="183"/>
+      <c r="G46" s="183"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="155"/>
-      <c r="B47" s="155"/>
-      <c r="C47" s="155"/>
-      <c r="D47" s="155"/>
-      <c r="E47" s="155"/>
-      <c r="F47" s="155"/>
-      <c r="G47" s="155"/>
+      <c r="A47" s="183"/>
+      <c r="B47" s="183"/>
+      <c r="C47" s="183"/>
+      <c r="D47" s="183"/>
+      <c r="E47" s="183"/>
+      <c r="F47" s="183"/>
+      <c r="G47" s="183"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="155"/>
-      <c r="B48" s="155"/>
-      <c r="C48" s="155"/>
-      <c r="D48" s="155"/>
-      <c r="E48" s="155"/>
-      <c r="F48" s="155"/>
-      <c r="G48" s="155"/>
+      <c r="A48" s="183"/>
+      <c r="B48" s="183"/>
+      <c r="C48" s="183"/>
+      <c r="D48" s="183"/>
+      <c r="E48" s="183"/>
+      <c r="F48" s="183"/>
+      <c r="G48" s="183"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="155"/>
-      <c r="B49" s="155"/>
-      <c r="C49" s="155"/>
-      <c r="D49" s="155"/>
-      <c r="E49" s="155"/>
-      <c r="F49" s="155"/>
-      <c r="G49" s="155"/>
+      <c r="A49" s="183"/>
+      <c r="B49" s="183"/>
+      <c r="C49" s="183"/>
+      <c r="D49" s="183"/>
+      <c r="E49" s="183"/>
+      <c r="F49" s="183"/>
+      <c r="G49" s="183"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="155"/>
-      <c r="B50" s="155"/>
-      <c r="C50" s="155"/>
-      <c r="D50" s="155"/>
-      <c r="E50" s="155"/>
-      <c r="F50" s="155"/>
-      <c r="G50" s="155"/>
+      <c r="A50" s="183"/>
+      <c r="B50" s="183"/>
+      <c r="C50" s="183"/>
+      <c r="D50" s="183"/>
+      <c r="E50" s="183"/>
+      <c r="F50" s="183"/>
+      <c r="G50" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6386,26 +6518,26 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="181" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
     </row>
     <row r="3" spans="1:8" ht="13.5">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="36"/>
@@ -6417,24 +6549,24 @@
       <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="149" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="149" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="179"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="148"/>
+      <c r="A6" s="176"/>
       <c r="B6" s="30" t="s">
         <v>33</v>
       </c>
@@ -7095,15 +7227,15 @@
       <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:8" ht="15">
-      <c r="A36" s="143" t="s">
+      <c r="A36" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="143"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
+      <c r="B36" s="171"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="171"/>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" ht="14.25">
@@ -7119,25 +7251,25 @@
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="154" t="s">
+      <c r="A38" s="182" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="154"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
+      <c r="B38" s="182"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="182"/>
+      <c r="E38" s="182"/>
+      <c r="F38" s="182"/>
+      <c r="G38" s="182"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="154"/>
-      <c r="B39" s="154"/>
-      <c r="C39" s="154"/>
-      <c r="D39" s="154"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="154"/>
+      <c r="A39" s="182"/>
+      <c r="B39" s="182"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="182"/>
+      <c r="E39" s="182"/>
+      <c r="F39" s="182"/>
+      <c r="G39" s="182"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8">
@@ -7195,26 +7327,26 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="181" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
     </row>
     <row r="3" spans="1:8" ht="13.5">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="34"/>
@@ -7226,24 +7358,24 @@
       <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="149" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="149" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="179"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="148"/>
+      <c r="A6" s="176"/>
       <c r="B6" s="30" t="s">
         <v>33</v>
       </c>
@@ -7904,15 +8036,15 @@
       <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:8" ht="15">
-      <c r="A36" s="143" t="s">
+      <c r="A36" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="143"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
+      <c r="B36" s="171"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="171"/>
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8" ht="14.25">
@@ -7948,25 +8080,25 @@
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="154" t="s">
+      <c r="A40" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="154"/>
-      <c r="C40" s="154"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="182"/>
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="154"/>
-      <c r="B41" s="154"/>
-      <c r="C41" s="154"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="154"/>
+      <c r="A41" s="182"/>
+      <c r="B41" s="182"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="182"/>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8">
@@ -8024,26 +8156,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="181" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
     </row>
     <row r="3" spans="1:8" ht="14.1" customHeight="1">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="34"/>
@@ -8055,24 +8187,24 @@
       <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="149" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="149" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="179"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="148"/>
+      <c r="A6" s="176"/>
       <c r="B6" s="30" t="s">
         <v>33</v>
       </c>
@@ -8733,15 +8865,15 @@
       <c r="G35" s="13"/>
     </row>
     <row r="37" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="14.25" customHeight="1">
@@ -8777,15 +8909,15 @@
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" ht="30" customHeight="1">
-      <c r="A41" s="154" t="s">
+      <c r="A41" s="182" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8">
@@ -8843,26 +8975,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
     </row>
     <row r="3" spans="1:8" ht="14.1" customHeight="1">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="173" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="34"/>
@@ -8874,24 +9006,24 @@
       <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="149" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="149" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="179"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="148"/>
+      <c r="A6" s="176"/>
       <c r="B6" s="30" t="s">
         <v>33</v>
       </c>
@@ -9552,15 +9684,15 @@
       <c r="G35" s="13"/>
     </row>
     <row r="37" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="14.25" customHeight="1">
@@ -9596,15 +9728,15 @@
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" ht="30" customHeight="1">
-      <c r="A41" s="154" t="s">
+      <c r="A41" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8">
@@ -9662,15 +9794,15 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
     </row>
     <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="74" t="s">
@@ -9692,24 +9824,24 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="149" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="149" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="179"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="148"/>
+      <c r="A6" s="176"/>
       <c r="B6" s="30" t="s">
         <v>33</v>
       </c>
@@ -10370,15 +10502,15 @@
       <c r="G35" s="13"/>
     </row>
     <row r="37" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="14.25" customHeight="1">
@@ -10414,34 +10546,34 @@
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8" ht="27.6" customHeight="1">
-      <c r="A41" s="159" t="s">
+      <c r="A41" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="159"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="159"/>
+      <c r="B41" s="187"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="187"/>
+      <c r="G41" s="187"/>
+      <c r="H41" s="187"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="158" t="s">
+      <c r="A42" s="186" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="158"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
+      <c r="B42" s="186"/>
+      <c r="C42" s="186"/>
+      <c r="D42" s="186"/>
+      <c r="E42" s="186"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="186"/>
+      <c r="H42" s="186"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="156" t="s">
+      <c r="A43" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="157"/>
+      <c r="B43" s="185"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="5"/>
@@ -10683,15 +10815,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
     </row>
     <row r="3" spans="1:7" ht="15">
       <c r="A3" s="40" t="s">
@@ -10713,24 +10845,24 @@
       <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A5" s="164" t="s">
+      <c r="A5" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="194" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="166" t="s">
+      <c r="C5" s="195"/>
+      <c r="D5" s="194" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="167"/>
-      <c r="F5" s="166" t="s">
+      <c r="E5" s="195"/>
+      <c r="F5" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="168"/>
+      <c r="G5" s="196"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A6" s="165"/>
+      <c r="A6" s="193"/>
       <c r="B6" s="63" t="s">
         <v>33</v>
       </c>
@@ -11395,25 +11527,25 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A37" s="169" t="s">
+      <c r="A37" s="197" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
+      <c r="B37" s="197"/>
+      <c r="C37" s="197"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="197"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="197"/>
       <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A38" s="169"/>
-      <c r="B38" s="169"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="169"/>
+      <c r="A38" s="197"/>
+      <c r="B38" s="197"/>
+      <c r="C38" s="197"/>
+      <c r="D38" s="197"/>
+      <c r="E38" s="197"/>
+      <c r="F38" s="197"/>
+      <c r="G38" s="197"/>
       <c r="H38" s="40"/>
     </row>
     <row r="39" spans="1:8" ht="14.25" customHeight="1">
@@ -11439,65 +11571,65 @@
       <c r="H40" s="40"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="160" t="s">
+      <c r="A41" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="160"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="188"/>
       <c r="H41" s="40"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="160"/>
-      <c r="B42" s="160"/>
-      <c r="C42" s="160"/>
-      <c r="D42" s="160"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="160"/>
+      <c r="A42" s="188"/>
+      <c r="B42" s="188"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="188"/>
+      <c r="G42" s="188"/>
       <c r="H42" s="40"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="160"/>
-      <c r="B43" s="160"/>
-      <c r="C43" s="160"/>
-      <c r="D43" s="160"/>
-      <c r="E43" s="160"/>
-      <c r="F43" s="160"/>
-      <c r="G43" s="160"/>
+      <c r="A43" s="188"/>
+      <c r="B43" s="188"/>
+      <c r="C43" s="188"/>
+      <c r="D43" s="188"/>
+      <c r="E43" s="188"/>
+      <c r="F43" s="188"/>
+      <c r="G43" s="188"/>
       <c r="H43" s="40"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="160"/>
-      <c r="B44" s="160"/>
-      <c r="C44" s="160"/>
-      <c r="D44" s="160"/>
-      <c r="E44" s="160"/>
-      <c r="F44" s="160"/>
-      <c r="G44" s="160"/>
+      <c r="A44" s="188"/>
+      <c r="B44" s="188"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="188"/>
+      <c r="E44" s="188"/>
+      <c r="F44" s="188"/>
+      <c r="G44" s="188"/>
       <c r="H44" s="40"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="160"/>
-      <c r="B45" s="160"/>
-      <c r="C45" s="160"/>
-      <c r="D45" s="160"/>
-      <c r="E45" s="160"/>
-      <c r="F45" s="160"/>
-      <c r="G45" s="160"/>
+      <c r="A45" s="188"/>
+      <c r="B45" s="188"/>
+      <c r="C45" s="188"/>
+      <c r="D45" s="188"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="188"/>
+      <c r="G45" s="188"/>
       <c r="H45" s="40"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="160"/>
-      <c r="B46" s="160"/>
-      <c r="C46" s="160"/>
-      <c r="D46" s="160"/>
-      <c r="E46" s="160"/>
-      <c r="F46" s="160"/>
-      <c r="G46" s="160"/>
+      <c r="A46" s="188"/>
+      <c r="B46" s="188"/>
+      <c r="C46" s="188"/>
+      <c r="D46" s="188"/>
+      <c r="E46" s="188"/>
+      <c r="F46" s="188"/>
+      <c r="G46" s="188"/>
       <c r="H46" s="40"/>
     </row>
     <row r="47" spans="1:8">
@@ -11511,79 +11643,79 @@
       <c r="H47" s="40"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="160" t="s">
+      <c r="A48" s="188" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="160"/>
-      <c r="C48" s="160"/>
-      <c r="D48" s="160"/>
-      <c r="E48" s="160"/>
-      <c r="F48" s="160"/>
-      <c r="G48" s="160"/>
+      <c r="B48" s="188"/>
+      <c r="C48" s="188"/>
+      <c r="D48" s="188"/>
+      <c r="E48" s="188"/>
+      <c r="F48" s="188"/>
+      <c r="G48" s="188"/>
       <c r="H48" s="40"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="160"/>
-      <c r="B49" s="160"/>
-      <c r="C49" s="160"/>
-      <c r="D49" s="160"/>
-      <c r="E49" s="160"/>
-      <c r="F49" s="160"/>
-      <c r="G49" s="160"/>
+      <c r="A49" s="188"/>
+      <c r="B49" s="188"/>
+      <c r="C49" s="188"/>
+      <c r="D49" s="188"/>
+      <c r="E49" s="188"/>
+      <c r="F49" s="188"/>
+      <c r="G49" s="188"/>
       <c r="H49" s="40"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="161" t="s">
+      <c r="A50" s="189" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="161"/>
-      <c r="C50" s="161"/>
-      <c r="D50" s="161"/>
-      <c r="E50" s="161"/>
-      <c r="F50" s="161"/>
-      <c r="G50" s="161"/>
+      <c r="B50" s="189"/>
+      <c r="C50" s="189"/>
+      <c r="D50" s="189"/>
+      <c r="E50" s="189"/>
+      <c r="F50" s="189"/>
+      <c r="G50" s="189"/>
       <c r="H50" s="46"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="161"/>
-      <c r="B51" s="161"/>
-      <c r="C51" s="161"/>
-      <c r="D51" s="161"/>
-      <c r="E51" s="161"/>
-      <c r="F51" s="161"/>
-      <c r="G51" s="161"/>
+      <c r="A51" s="189"/>
+      <c r="B51" s="189"/>
+      <c r="C51" s="189"/>
+      <c r="D51" s="189"/>
+      <c r="E51" s="189"/>
+      <c r="F51" s="189"/>
+      <c r="G51" s="189"/>
       <c r="H51" s="46"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="161"/>
-      <c r="B52" s="161"/>
-      <c r="C52" s="161"/>
-      <c r="D52" s="161"/>
-      <c r="E52" s="161"/>
-      <c r="F52" s="161"/>
-      <c r="G52" s="161"/>
+      <c r="A52" s="189"/>
+      <c r="B52" s="189"/>
+      <c r="C52" s="189"/>
+      <c r="D52" s="189"/>
+      <c r="E52" s="189"/>
+      <c r="F52" s="189"/>
+      <c r="G52" s="189"/>
       <c r="H52" s="46"/>
     </row>
     <row r="53" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A53" s="162" t="s">
+      <c r="A53" s="190" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="162"/>
-      <c r="C53" s="162"/>
-      <c r="D53" s="162"/>
-      <c r="E53" s="162"/>
-      <c r="F53" s="162"/>
-      <c r="G53" s="162"/>
+      <c r="B53" s="190"/>
+      <c r="C53" s="190"/>
+      <c r="D53" s="190"/>
+      <c r="E53" s="190"/>
+      <c r="F53" s="190"/>
+      <c r="G53" s="190"/>
       <c r="H53" s="45"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="162"/>
-      <c r="B54" s="162"/>
-      <c r="C54" s="162"/>
-      <c r="D54" s="162"/>
-      <c r="E54" s="162"/>
-      <c r="F54" s="162"/>
-      <c r="G54" s="162"/>
+      <c r="A54" s="190"/>
+      <c r="B54" s="190"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="190"/>
       <c r="H54" s="44"/>
     </row>
     <row r="55" spans="1:8">
@@ -11833,15 +11965,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="198" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
     </row>
     <row r="3" spans="1:7" ht="15">
       <c r="A3" s="40" t="s">
@@ -11863,24 +11995,24 @@
       <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A5" s="164" t="s">
+      <c r="A5" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="194" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="167"/>
-      <c r="D5" s="166" t="s">
+      <c r="C5" s="195"/>
+      <c r="D5" s="194" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="167"/>
-      <c r="F5" s="166" t="s">
+      <c r="E5" s="195"/>
+      <c r="F5" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="168"/>
+      <c r="G5" s="196"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A6" s="165"/>
+      <c r="A6" s="193"/>
       <c r="B6" s="63" t="s">
         <v>33</v>
       </c>
@@ -12545,16 +12677,16 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A37" s="171" t="s">
+      <c r="A37" s="199" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="171"/>
-      <c r="C37" s="171"/>
-      <c r="D37" s="171"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
+      <c r="B37" s="199"/>
+      <c r="C37" s="199"/>
+      <c r="D37" s="199"/>
+      <c r="E37" s="199"/>
+      <c r="F37" s="199"/>
+      <c r="G37" s="199"/>
+      <c r="H37" s="199"/>
     </row>
     <row r="38" spans="1:9" ht="14.25" customHeight="1">
       <c r="A38" s="68"/>
@@ -12579,60 +12711,60 @@
       <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A40" s="160" t="s">
+      <c r="A40" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="160"/>
-      <c r="C40" s="160"/>
-      <c r="D40" s="160"/>
-      <c r="E40" s="160"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="160"/>
+      <c r="B40" s="188"/>
+      <c r="C40" s="188"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
       <c r="I40" s="67"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="160"/>
-      <c r="B41" s="160"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160"/>
+      <c r="A41" s="188"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="188"/>
+      <c r="H41" s="188"/>
       <c r="I41" s="67"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="160"/>
-      <c r="B42" s="160"/>
-      <c r="C42" s="160"/>
-      <c r="D42" s="160"/>
-      <c r="E42" s="160"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="160"/>
+      <c r="A42" s="188"/>
+      <c r="B42" s="188"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="188"/>
+      <c r="G42" s="188"/>
+      <c r="H42" s="188"/>
       <c r="I42" s="67"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="160"/>
-      <c r="B43" s="160"/>
-      <c r="C43" s="160"/>
-      <c r="D43" s="160"/>
-      <c r="E43" s="160"/>
-      <c r="F43" s="160"/>
-      <c r="G43" s="160"/>
-      <c r="H43" s="160"/>
+      <c r="A43" s="188"/>
+      <c r="B43" s="188"/>
+      <c r="C43" s="188"/>
+      <c r="D43" s="188"/>
+      <c r="E43" s="188"/>
+      <c r="F43" s="188"/>
+      <c r="G43" s="188"/>
+      <c r="H43" s="188"/>
       <c r="I43" s="67"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="160"/>
-      <c r="B44" s="160"/>
-      <c r="C44" s="160"/>
-      <c r="D44" s="160"/>
-      <c r="E44" s="160"/>
-      <c r="F44" s="160"/>
-      <c r="G44" s="160"/>
-      <c r="H44" s="160"/>
+      <c r="A44" s="188"/>
+      <c r="B44" s="188"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="188"/>
+      <c r="E44" s="188"/>
+      <c r="F44" s="188"/>
+      <c r="G44" s="188"/>
+      <c r="H44" s="188"/>
       <c r="I44" s="67"/>
     </row>
     <row r="45" spans="1:9">
@@ -12647,64 +12779,64 @@
       <c r="I45" s="47"/>
     </row>
     <row r="46" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A46" s="160" t="s">
+      <c r="A46" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="160"/>
-      <c r="C46" s="160"/>
-      <c r="D46" s="160"/>
-      <c r="E46" s="160"/>
-      <c r="F46" s="160"/>
-      <c r="G46" s="160"/>
-      <c r="H46" s="160"/>
+      <c r="B46" s="188"/>
+      <c r="C46" s="188"/>
+      <c r="D46" s="188"/>
+      <c r="E46" s="188"/>
+      <c r="F46" s="188"/>
+      <c r="G46" s="188"/>
+      <c r="H46" s="188"/>
       <c r="I46" s="67"/>
     </row>
     <row r="47" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A47" s="160"/>
-      <c r="B47" s="160"/>
-      <c r="C47" s="160"/>
-      <c r="D47" s="160"/>
-      <c r="E47" s="160"/>
-      <c r="F47" s="160"/>
-      <c r="G47" s="160"/>
-      <c r="H47" s="160"/>
+      <c r="A47" s="188"/>
+      <c r="B47" s="188"/>
+      <c r="C47" s="188"/>
+      <c r="D47" s="188"/>
+      <c r="E47" s="188"/>
+      <c r="F47" s="188"/>
+      <c r="G47" s="188"/>
+      <c r="H47" s="188"/>
       <c r="I47" s="67"/>
     </row>
     <row r="48" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A48" s="160" t="s">
+      <c r="A48" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="160"/>
-      <c r="C48" s="160"/>
-      <c r="D48" s="160"/>
-      <c r="E48" s="160"/>
-      <c r="F48" s="160"/>
-      <c r="G48" s="160"/>
-      <c r="H48" s="160"/>
+      <c r="B48" s="188"/>
+      <c r="C48" s="188"/>
+      <c r="D48" s="188"/>
+      <c r="E48" s="188"/>
+      <c r="F48" s="188"/>
+      <c r="G48" s="188"/>
+      <c r="H48" s="188"/>
       <c r="I48" s="67"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="160"/>
-      <c r="B49" s="160"/>
-      <c r="C49" s="160"/>
-      <c r="D49" s="160"/>
-      <c r="E49" s="160"/>
-      <c r="F49" s="160"/>
-      <c r="G49" s="160"/>
-      <c r="H49" s="160"/>
+      <c r="A49" s="188"/>
+      <c r="B49" s="188"/>
+      <c r="C49" s="188"/>
+      <c r="D49" s="188"/>
+      <c r="E49" s="188"/>
+      <c r="F49" s="188"/>
+      <c r="G49" s="188"/>
+      <c r="H49" s="188"/>
       <c r="I49" s="67"/>
     </row>
     <row r="50" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A50" s="170" t="s">
+      <c r="A50" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="170"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
-      <c r="E50" s="170"/>
-      <c r="F50" s="170"/>
-      <c r="G50" s="170"/>
-      <c r="H50" s="170"/>
+      <c r="B50" s="198"/>
+      <c r="C50" s="198"/>
+      <c r="D50" s="198"/>
+      <c r="E50" s="198"/>
+      <c r="F50" s="198"/>
+      <c r="G50" s="198"/>
+      <c r="H50" s="198"/>
       <c r="I50" s="66"/>
     </row>
     <row r="51" spans="1:9">
@@ -12765,46 +12897,46 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="154" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="129" t="s">
+      <c r="C5" s="158"/>
+      <c r="D5" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="129" t="s">
+      <c r="E5" s="158"/>
+      <c r="F5" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="130"/>
+      <c r="G5" s="158"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="128"/>
+      <c r="A6" s="156"/>
       <c r="B6" s="84" t="s">
         <v>33</v>
       </c>
@@ -13148,12 +13280,12 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="82"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="124"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="152"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="80" t="s">
@@ -13305,28 +13437,28 @@
       <c r="B29" s="76"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A30" s="125" t="s">
+      <c r="A30" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="126" t="s">
+      <c r="A32" s="154" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="75" t="s">
@@ -13349,6 +13481,2411 @@
   <pageSetup scale="80" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I56"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" style="126" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="128" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="127" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="128" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="127" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="128" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="127" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="126" customWidth="1"/>
+    <col min="9" max="256" width="9.140625" style="126"/>
+    <col min="257" max="257" width="17.7109375" style="126" customWidth="1"/>
+    <col min="258" max="263" width="10.7109375" style="126" customWidth="1"/>
+    <col min="264" max="512" width="9.140625" style="126"/>
+    <col min="513" max="513" width="17.7109375" style="126" customWidth="1"/>
+    <col min="514" max="519" width="10.7109375" style="126" customWidth="1"/>
+    <col min="520" max="768" width="9.140625" style="126"/>
+    <col min="769" max="769" width="17.7109375" style="126" customWidth="1"/>
+    <col min="770" max="775" width="10.7109375" style="126" customWidth="1"/>
+    <col min="776" max="1024" width="9.140625" style="126"/>
+    <col min="1025" max="1025" width="17.7109375" style="126" customWidth="1"/>
+    <col min="1026" max="1031" width="10.7109375" style="126" customWidth="1"/>
+    <col min="1032" max="1280" width="9.140625" style="126"/>
+    <col min="1281" max="1281" width="17.7109375" style="126" customWidth="1"/>
+    <col min="1282" max="1287" width="10.7109375" style="126" customWidth="1"/>
+    <col min="1288" max="1536" width="9.140625" style="126"/>
+    <col min="1537" max="1537" width="17.7109375" style="126" customWidth="1"/>
+    <col min="1538" max="1543" width="10.7109375" style="126" customWidth="1"/>
+    <col min="1544" max="1792" width="9.140625" style="126"/>
+    <col min="1793" max="1793" width="17.7109375" style="126" customWidth="1"/>
+    <col min="1794" max="1799" width="10.7109375" style="126" customWidth="1"/>
+    <col min="1800" max="2048" width="9.140625" style="126"/>
+    <col min="2049" max="2049" width="17.7109375" style="126" customWidth="1"/>
+    <col min="2050" max="2055" width="10.7109375" style="126" customWidth="1"/>
+    <col min="2056" max="2304" width="9.140625" style="126"/>
+    <col min="2305" max="2305" width="17.7109375" style="126" customWidth="1"/>
+    <col min="2306" max="2311" width="10.7109375" style="126" customWidth="1"/>
+    <col min="2312" max="2560" width="9.140625" style="126"/>
+    <col min="2561" max="2561" width="17.7109375" style="126" customWidth="1"/>
+    <col min="2562" max="2567" width="10.7109375" style="126" customWidth="1"/>
+    <col min="2568" max="2816" width="9.140625" style="126"/>
+    <col min="2817" max="2817" width="17.7109375" style="126" customWidth="1"/>
+    <col min="2818" max="2823" width="10.7109375" style="126" customWidth="1"/>
+    <col min="2824" max="3072" width="9.140625" style="126"/>
+    <col min="3073" max="3073" width="17.7109375" style="126" customWidth="1"/>
+    <col min="3074" max="3079" width="10.7109375" style="126" customWidth="1"/>
+    <col min="3080" max="3328" width="9.140625" style="126"/>
+    <col min="3329" max="3329" width="17.7109375" style="126" customWidth="1"/>
+    <col min="3330" max="3335" width="10.7109375" style="126" customWidth="1"/>
+    <col min="3336" max="3584" width="9.140625" style="126"/>
+    <col min="3585" max="3585" width="17.7109375" style="126" customWidth="1"/>
+    <col min="3586" max="3591" width="10.7109375" style="126" customWidth="1"/>
+    <col min="3592" max="3840" width="9.140625" style="126"/>
+    <col min="3841" max="3841" width="17.7109375" style="126" customWidth="1"/>
+    <col min="3842" max="3847" width="10.7109375" style="126" customWidth="1"/>
+    <col min="3848" max="4096" width="9.140625" style="126"/>
+    <col min="4097" max="4097" width="17.7109375" style="126" customWidth="1"/>
+    <col min="4098" max="4103" width="10.7109375" style="126" customWidth="1"/>
+    <col min="4104" max="4352" width="9.140625" style="126"/>
+    <col min="4353" max="4353" width="17.7109375" style="126" customWidth="1"/>
+    <col min="4354" max="4359" width="10.7109375" style="126" customWidth="1"/>
+    <col min="4360" max="4608" width="9.140625" style="126"/>
+    <col min="4609" max="4609" width="17.7109375" style="126" customWidth="1"/>
+    <col min="4610" max="4615" width="10.7109375" style="126" customWidth="1"/>
+    <col min="4616" max="4864" width="9.140625" style="126"/>
+    <col min="4865" max="4865" width="17.7109375" style="126" customWidth="1"/>
+    <col min="4866" max="4871" width="10.7109375" style="126" customWidth="1"/>
+    <col min="4872" max="5120" width="9.140625" style="126"/>
+    <col min="5121" max="5121" width="17.7109375" style="126" customWidth="1"/>
+    <col min="5122" max="5127" width="10.7109375" style="126" customWidth="1"/>
+    <col min="5128" max="5376" width="9.140625" style="126"/>
+    <col min="5377" max="5377" width="17.7109375" style="126" customWidth="1"/>
+    <col min="5378" max="5383" width="10.7109375" style="126" customWidth="1"/>
+    <col min="5384" max="5632" width="9.140625" style="126"/>
+    <col min="5633" max="5633" width="17.7109375" style="126" customWidth="1"/>
+    <col min="5634" max="5639" width="10.7109375" style="126" customWidth="1"/>
+    <col min="5640" max="5888" width="9.140625" style="126"/>
+    <col min="5889" max="5889" width="17.7109375" style="126" customWidth="1"/>
+    <col min="5890" max="5895" width="10.7109375" style="126" customWidth="1"/>
+    <col min="5896" max="6144" width="9.140625" style="126"/>
+    <col min="6145" max="6145" width="17.7109375" style="126" customWidth="1"/>
+    <col min="6146" max="6151" width="10.7109375" style="126" customWidth="1"/>
+    <col min="6152" max="6400" width="9.140625" style="126"/>
+    <col min="6401" max="6401" width="17.7109375" style="126" customWidth="1"/>
+    <col min="6402" max="6407" width="10.7109375" style="126" customWidth="1"/>
+    <col min="6408" max="6656" width="9.140625" style="126"/>
+    <col min="6657" max="6657" width="17.7109375" style="126" customWidth="1"/>
+    <col min="6658" max="6663" width="10.7109375" style="126" customWidth="1"/>
+    <col min="6664" max="6912" width="9.140625" style="126"/>
+    <col min="6913" max="6913" width="17.7109375" style="126" customWidth="1"/>
+    <col min="6914" max="6919" width="10.7109375" style="126" customWidth="1"/>
+    <col min="6920" max="7168" width="9.140625" style="126"/>
+    <col min="7169" max="7169" width="17.7109375" style="126" customWidth="1"/>
+    <col min="7170" max="7175" width="10.7109375" style="126" customWidth="1"/>
+    <col min="7176" max="7424" width="9.140625" style="126"/>
+    <col min="7425" max="7425" width="17.7109375" style="126" customWidth="1"/>
+    <col min="7426" max="7431" width="10.7109375" style="126" customWidth="1"/>
+    <col min="7432" max="7680" width="9.140625" style="126"/>
+    <col min="7681" max="7681" width="17.7109375" style="126" customWidth="1"/>
+    <col min="7682" max="7687" width="10.7109375" style="126" customWidth="1"/>
+    <col min="7688" max="7936" width="9.140625" style="126"/>
+    <col min="7937" max="7937" width="17.7109375" style="126" customWidth="1"/>
+    <col min="7938" max="7943" width="10.7109375" style="126" customWidth="1"/>
+    <col min="7944" max="8192" width="9.140625" style="126"/>
+    <col min="8193" max="8193" width="17.7109375" style="126" customWidth="1"/>
+    <col min="8194" max="8199" width="10.7109375" style="126" customWidth="1"/>
+    <col min="8200" max="8448" width="9.140625" style="126"/>
+    <col min="8449" max="8449" width="17.7109375" style="126" customWidth="1"/>
+    <col min="8450" max="8455" width="10.7109375" style="126" customWidth="1"/>
+    <col min="8456" max="8704" width="9.140625" style="126"/>
+    <col min="8705" max="8705" width="17.7109375" style="126" customWidth="1"/>
+    <col min="8706" max="8711" width="10.7109375" style="126" customWidth="1"/>
+    <col min="8712" max="8960" width="9.140625" style="126"/>
+    <col min="8961" max="8961" width="17.7109375" style="126" customWidth="1"/>
+    <col min="8962" max="8967" width="10.7109375" style="126" customWidth="1"/>
+    <col min="8968" max="9216" width="9.140625" style="126"/>
+    <col min="9217" max="9217" width="17.7109375" style="126" customWidth="1"/>
+    <col min="9218" max="9223" width="10.7109375" style="126" customWidth="1"/>
+    <col min="9224" max="9472" width="9.140625" style="126"/>
+    <col min="9473" max="9473" width="17.7109375" style="126" customWidth="1"/>
+    <col min="9474" max="9479" width="10.7109375" style="126" customWidth="1"/>
+    <col min="9480" max="9728" width="9.140625" style="126"/>
+    <col min="9729" max="9729" width="17.7109375" style="126" customWidth="1"/>
+    <col min="9730" max="9735" width="10.7109375" style="126" customWidth="1"/>
+    <col min="9736" max="9984" width="9.140625" style="126"/>
+    <col min="9985" max="9985" width="17.7109375" style="126" customWidth="1"/>
+    <col min="9986" max="9991" width="10.7109375" style="126" customWidth="1"/>
+    <col min="9992" max="10240" width="9.140625" style="126"/>
+    <col min="10241" max="10241" width="17.7109375" style="126" customWidth="1"/>
+    <col min="10242" max="10247" width="10.7109375" style="126" customWidth="1"/>
+    <col min="10248" max="10496" width="9.140625" style="126"/>
+    <col min="10497" max="10497" width="17.7109375" style="126" customWidth="1"/>
+    <col min="10498" max="10503" width="10.7109375" style="126" customWidth="1"/>
+    <col min="10504" max="10752" width="9.140625" style="126"/>
+    <col min="10753" max="10753" width="17.7109375" style="126" customWidth="1"/>
+    <col min="10754" max="10759" width="10.7109375" style="126" customWidth="1"/>
+    <col min="10760" max="11008" width="9.140625" style="126"/>
+    <col min="11009" max="11009" width="17.7109375" style="126" customWidth="1"/>
+    <col min="11010" max="11015" width="10.7109375" style="126" customWidth="1"/>
+    <col min="11016" max="11264" width="9.140625" style="126"/>
+    <col min="11265" max="11265" width="17.7109375" style="126" customWidth="1"/>
+    <col min="11266" max="11271" width="10.7109375" style="126" customWidth="1"/>
+    <col min="11272" max="11520" width="9.140625" style="126"/>
+    <col min="11521" max="11521" width="17.7109375" style="126" customWidth="1"/>
+    <col min="11522" max="11527" width="10.7109375" style="126" customWidth="1"/>
+    <col min="11528" max="11776" width="9.140625" style="126"/>
+    <col min="11777" max="11777" width="17.7109375" style="126" customWidth="1"/>
+    <col min="11778" max="11783" width="10.7109375" style="126" customWidth="1"/>
+    <col min="11784" max="12032" width="9.140625" style="126"/>
+    <col min="12033" max="12033" width="17.7109375" style="126" customWidth="1"/>
+    <col min="12034" max="12039" width="10.7109375" style="126" customWidth="1"/>
+    <col min="12040" max="12288" width="9.140625" style="126"/>
+    <col min="12289" max="12289" width="17.7109375" style="126" customWidth="1"/>
+    <col min="12290" max="12295" width="10.7109375" style="126" customWidth="1"/>
+    <col min="12296" max="12544" width="9.140625" style="126"/>
+    <col min="12545" max="12545" width="17.7109375" style="126" customWidth="1"/>
+    <col min="12546" max="12551" width="10.7109375" style="126" customWidth="1"/>
+    <col min="12552" max="12800" width="9.140625" style="126"/>
+    <col min="12801" max="12801" width="17.7109375" style="126" customWidth="1"/>
+    <col min="12802" max="12807" width="10.7109375" style="126" customWidth="1"/>
+    <col min="12808" max="13056" width="9.140625" style="126"/>
+    <col min="13057" max="13057" width="17.7109375" style="126" customWidth="1"/>
+    <col min="13058" max="13063" width="10.7109375" style="126" customWidth="1"/>
+    <col min="13064" max="13312" width="9.140625" style="126"/>
+    <col min="13313" max="13313" width="17.7109375" style="126" customWidth="1"/>
+    <col min="13314" max="13319" width="10.7109375" style="126" customWidth="1"/>
+    <col min="13320" max="13568" width="9.140625" style="126"/>
+    <col min="13569" max="13569" width="17.7109375" style="126" customWidth="1"/>
+    <col min="13570" max="13575" width="10.7109375" style="126" customWidth="1"/>
+    <col min="13576" max="13824" width="9.140625" style="126"/>
+    <col min="13825" max="13825" width="17.7109375" style="126" customWidth="1"/>
+    <col min="13826" max="13831" width="10.7109375" style="126" customWidth="1"/>
+    <col min="13832" max="14080" width="9.140625" style="126"/>
+    <col min="14081" max="14081" width="17.7109375" style="126" customWidth="1"/>
+    <col min="14082" max="14087" width="10.7109375" style="126" customWidth="1"/>
+    <col min="14088" max="14336" width="9.140625" style="126"/>
+    <col min="14337" max="14337" width="17.7109375" style="126" customWidth="1"/>
+    <col min="14338" max="14343" width="10.7109375" style="126" customWidth="1"/>
+    <col min="14344" max="14592" width="9.140625" style="126"/>
+    <col min="14593" max="14593" width="17.7109375" style="126" customWidth="1"/>
+    <col min="14594" max="14599" width="10.7109375" style="126" customWidth="1"/>
+    <col min="14600" max="14848" width="9.140625" style="126"/>
+    <col min="14849" max="14849" width="17.7109375" style="126" customWidth="1"/>
+    <col min="14850" max="14855" width="10.7109375" style="126" customWidth="1"/>
+    <col min="14856" max="15104" width="9.140625" style="126"/>
+    <col min="15105" max="15105" width="17.7109375" style="126" customWidth="1"/>
+    <col min="15106" max="15111" width="10.7109375" style="126" customWidth="1"/>
+    <col min="15112" max="15360" width="9.140625" style="126"/>
+    <col min="15361" max="15361" width="17.7109375" style="126" customWidth="1"/>
+    <col min="15362" max="15367" width="10.7109375" style="126" customWidth="1"/>
+    <col min="15368" max="15616" width="9.140625" style="126"/>
+    <col min="15617" max="15617" width="17.7109375" style="126" customWidth="1"/>
+    <col min="15618" max="15623" width="10.7109375" style="126" customWidth="1"/>
+    <col min="15624" max="15872" width="9.140625" style="126"/>
+    <col min="15873" max="15873" width="17.7109375" style="126" customWidth="1"/>
+    <col min="15874" max="15879" width="10.7109375" style="126" customWidth="1"/>
+    <col min="15880" max="16128" width="9.140625" style="126"/>
+    <col min="16129" max="16129" width="17.7109375" style="126" customWidth="1"/>
+    <col min="16130" max="16135" width="10.7109375" style="126" customWidth="1"/>
+    <col min="16136" max="16384" width="9.140625" style="126"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A2" s="200" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="122" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A5" s="175" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="202" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="203"/>
+      <c r="D5" s="202" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="203"/>
+      <c r="F5" s="202" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="204"/>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A6" s="201"/>
+      <c r="B6" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="149" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="149" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="147" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A7" s="146" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="145">
+        <v>328722</v>
+      </c>
+      <c r="C7" s="144">
+        <v>100</v>
+      </c>
+      <c r="D7" s="145">
+        <v>162090</v>
+      </c>
+      <c r="E7" s="144">
+        <v>100</v>
+      </c>
+      <c r="F7" s="145">
+        <v>166632</v>
+      </c>
+      <c r="G7" s="144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A8" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="141">
+        <v>18539</v>
+      </c>
+      <c r="C8" s="140">
+        <v>5.6</v>
+      </c>
+      <c r="D8" s="141">
+        <v>9477</v>
+      </c>
+      <c r="E8" s="140">
+        <v>5.8</v>
+      </c>
+      <c r="F8" s="141">
+        <v>9062</v>
+      </c>
+      <c r="G8" s="140">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A9" s="142" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="141">
+        <v>20228</v>
+      </c>
+      <c r="C9" s="140">
+        <v>6.2</v>
+      </c>
+      <c r="D9" s="141">
+        <v>10342</v>
+      </c>
+      <c r="E9" s="140">
+        <v>6.4</v>
+      </c>
+      <c r="F9" s="141">
+        <v>9887</v>
+      </c>
+      <c r="G9" s="140">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A10" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="141">
+        <v>21231</v>
+      </c>
+      <c r="C10" s="140">
+        <v>6.5</v>
+      </c>
+      <c r="D10" s="141">
+        <v>10882</v>
+      </c>
+      <c r="E10" s="140">
+        <v>6.7</v>
+      </c>
+      <c r="F10" s="141">
+        <v>10349</v>
+      </c>
+      <c r="G10" s="140">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A11" s="142" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="141">
+        <v>21414</v>
+      </c>
+      <c r="C11" s="140">
+        <v>6.5</v>
+      </c>
+      <c r="D11" s="141">
+        <v>10863</v>
+      </c>
+      <c r="E11" s="140">
+        <v>6.7</v>
+      </c>
+      <c r="F11" s="141">
+        <v>10551</v>
+      </c>
+      <c r="G11" s="140">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A12" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="141">
+        <v>21035</v>
+      </c>
+      <c r="C12" s="140">
+        <v>6.4</v>
+      </c>
+      <c r="D12" s="141">
+        <v>10547</v>
+      </c>
+      <c r="E12" s="140">
+        <v>6.5</v>
+      </c>
+      <c r="F12" s="141">
+        <v>10488</v>
+      </c>
+      <c r="G12" s="140">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A13" s="142" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="141">
+        <v>21747</v>
+      </c>
+      <c r="C13" s="140">
+        <v>6.6</v>
+      </c>
+      <c r="D13" s="141">
+        <v>10940</v>
+      </c>
+      <c r="E13" s="140">
+        <v>6.7</v>
+      </c>
+      <c r="F13" s="141">
+        <v>10807</v>
+      </c>
+      <c r="G13" s="140">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A14" s="142" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="141">
+        <v>22836</v>
+      </c>
+      <c r="C14" s="140">
+        <v>6.9</v>
+      </c>
+      <c r="D14" s="141">
+        <v>11386</v>
+      </c>
+      <c r="E14" s="140">
+        <v>7</v>
+      </c>
+      <c r="F14" s="143">
+        <v>11450</v>
+      </c>
+      <c r="G14" s="140">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A15" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="141">
+        <v>21992</v>
+      </c>
+      <c r="C15" s="140">
+        <v>6.7</v>
+      </c>
+      <c r="D15" s="141">
+        <v>10987</v>
+      </c>
+      <c r="E15" s="140">
+        <v>6.8</v>
+      </c>
+      <c r="F15" s="141">
+        <v>11005</v>
+      </c>
+      <c r="G15" s="140">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A16" s="142" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="141">
+        <v>21198</v>
+      </c>
+      <c r="C16" s="140">
+        <v>6.4</v>
+      </c>
+      <c r="D16" s="141">
+        <v>10593</v>
+      </c>
+      <c r="E16" s="140">
+        <v>6.5</v>
+      </c>
+      <c r="F16" s="141">
+        <v>10605</v>
+      </c>
+      <c r="G16" s="140">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A17" s="142" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="141">
+        <v>19430</v>
+      </c>
+      <c r="C17" s="140">
+        <v>5.9</v>
+      </c>
+      <c r="D17" s="141">
+        <v>9623</v>
+      </c>
+      <c r="E17" s="140">
+        <v>5.9</v>
+      </c>
+      <c r="F17" s="141">
+        <v>9807</v>
+      </c>
+      <c r="G17" s="140">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A18" s="139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="141">
+        <v>20700</v>
+      </c>
+      <c r="C18" s="140">
+        <v>6.3</v>
+      </c>
+      <c r="D18" s="141">
+        <v>10261</v>
+      </c>
+      <c r="E18" s="140">
+        <v>6.3</v>
+      </c>
+      <c r="F18" s="141">
+        <v>10440</v>
+      </c>
+      <c r="G18" s="140">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A19" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="141">
+        <v>21004</v>
+      </c>
+      <c r="C19" s="140">
+        <v>6.4</v>
+      </c>
+      <c r="D19" s="141">
+        <v>10339</v>
+      </c>
+      <c r="E19" s="140">
+        <v>6.4</v>
+      </c>
+      <c r="F19" s="141">
+        <v>10665</v>
+      </c>
+      <c r="G19" s="140">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A20" s="139" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="141">
+        <v>21174</v>
+      </c>
+      <c r="C20" s="140">
+        <v>6.4</v>
+      </c>
+      <c r="D20" s="141">
+        <v>10203</v>
+      </c>
+      <c r="E20" s="140">
+        <v>6.3</v>
+      </c>
+      <c r="F20" s="141">
+        <v>10971</v>
+      </c>
+      <c r="G20" s="140">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A21" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="141">
+        <v>18533</v>
+      </c>
+      <c r="C21" s="140">
+        <v>5.6</v>
+      </c>
+      <c r="D21" s="141">
+        <v>8818</v>
+      </c>
+      <c r="E21" s="140">
+        <v>5.4</v>
+      </c>
+      <c r="F21" s="141">
+        <v>9715</v>
+      </c>
+      <c r="G21" s="140">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A22" s="139" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="141">
+        <v>15171</v>
+      </c>
+      <c r="C22" s="140">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D22" s="141">
+        <v>7012</v>
+      </c>
+      <c r="E22" s="140">
+        <v>4.3</v>
+      </c>
+      <c r="F22" s="141">
+        <v>8159</v>
+      </c>
+      <c r="G22" s="140">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A23" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="141">
+        <v>10304</v>
+      </c>
+      <c r="C23" s="140">
+        <v>3.1</v>
+      </c>
+      <c r="D23" s="141">
+        <v>4795</v>
+      </c>
+      <c r="E23" s="140">
+        <v>3</v>
+      </c>
+      <c r="F23" s="141">
+        <v>5509</v>
+      </c>
+      <c r="G23" s="140">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A24" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="141">
+        <v>6389</v>
+      </c>
+      <c r="C24" s="140">
+        <v>1.9</v>
+      </c>
+      <c r="D24" s="141">
+        <v>2718</v>
+      </c>
+      <c r="E24" s="140">
+        <v>1.7</v>
+      </c>
+      <c r="F24" s="141">
+        <v>3670</v>
+      </c>
+      <c r="G24" s="140">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A25" s="139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="141">
+        <v>5796</v>
+      </c>
+      <c r="C25" s="140">
+        <v>1.8</v>
+      </c>
+      <c r="D25" s="141">
+        <v>2304</v>
+      </c>
+      <c r="E25" s="140">
+        <v>1.4</v>
+      </c>
+      <c r="F25" s="141">
+        <v>3492</v>
+      </c>
+      <c r="G25" s="140">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A26" s="139"/>
+      <c r="B26" s="141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="141" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="141" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A27" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="141">
+        <v>59999</v>
+      </c>
+      <c r="C27" s="140">
+        <v>18.3</v>
+      </c>
+      <c r="D27" s="141">
+        <v>30701</v>
+      </c>
+      <c r="E27" s="140">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F27" s="141">
+        <v>29298</v>
+      </c>
+      <c r="G27" s="140">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A28" s="139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="141">
+        <v>13468</v>
+      </c>
+      <c r="C28" s="140">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D28" s="141">
+        <v>6843</v>
+      </c>
+      <c r="E28" s="140">
+        <v>4.2</v>
+      </c>
+      <c r="F28" s="141">
+        <v>6626</v>
+      </c>
+      <c r="G28" s="140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A29" s="139" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="141">
+        <v>12101</v>
+      </c>
+      <c r="C29" s="140">
+        <v>3.7</v>
+      </c>
+      <c r="D29" s="141">
+        <v>6146</v>
+      </c>
+      <c r="E29" s="140">
+        <v>3.8</v>
+      </c>
+      <c r="F29" s="141">
+        <v>5956</v>
+      </c>
+      <c r="G29" s="140">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A30" s="139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="141">
+        <v>104653</v>
+      </c>
+      <c r="C30" s="140">
+        <v>31.8</v>
+      </c>
+      <c r="D30" s="141">
+        <v>52327</v>
+      </c>
+      <c r="E30" s="140">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="F30" s="141">
+        <v>52325</v>
+      </c>
+      <c r="G30" s="140">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A31" s="139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="141">
+        <v>82308</v>
+      </c>
+      <c r="C31" s="140">
+        <v>25</v>
+      </c>
+      <c r="D31" s="141">
+        <v>40426</v>
+      </c>
+      <c r="E31" s="140">
+        <v>24.9</v>
+      </c>
+      <c r="F31" s="141">
+        <v>41882</v>
+      </c>
+      <c r="G31" s="140">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A32" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="141">
+        <v>56193</v>
+      </c>
+      <c r="C32" s="140">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D32" s="141">
+        <v>25647</v>
+      </c>
+      <c r="E32" s="140">
+        <v>15.8</v>
+      </c>
+      <c r="F32" s="141">
+        <v>30546</v>
+      </c>
+      <c r="G32" s="140">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A33" s="139"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="140"/>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A34" s="139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="138">
+        <v>38.9</v>
+      </c>
+      <c r="C34" s="137" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="138">
+        <v>38</v>
+      </c>
+      <c r="E34" s="137" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" s="138">
+        <v>39.9</v>
+      </c>
+      <c r="G34" s="137" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A35" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="136"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="135"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A36" s="134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A37" s="171" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="171"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="171"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A38" s="171"/>
+      <c r="B38" s="171"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="171"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="171"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A39" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="123"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="122"/>
+    </row>
+    <row r="40" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A40" s="173" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="173"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="133"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="173"/>
+      <c r="B41" s="173"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="133"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="173"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="133"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="173"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="173"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="173"/>
+      <c r="G43" s="173"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="133"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="173"/>
+      <c r="B44" s="173"/>
+      <c r="C44" s="173"/>
+      <c r="D44" s="173"/>
+      <c r="E44" s="173"/>
+      <c r="F44" s="173"/>
+      <c r="G44" s="173"/>
+      <c r="H44" s="173"/>
+      <c r="I44" s="133"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="173"/>
+      <c r="B45" s="173"/>
+      <c r="C45" s="173"/>
+      <c r="D45" s="173"/>
+      <c r="E45" s="173"/>
+      <c r="F45" s="173"/>
+      <c r="G45" s="173"/>
+      <c r="H45" s="173"/>
+      <c r="I45" s="133"/>
+    </row>
+    <row r="46" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A46" s="173" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="173"/>
+      <c r="C46" s="173"/>
+      <c r="D46" s="173"/>
+      <c r="E46" s="173"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="173"/>
+      <c r="H46" s="173"/>
+      <c r="I46" s="133"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="173"/>
+      <c r="B47" s="173"/>
+      <c r="C47" s="173"/>
+      <c r="D47" s="173"/>
+      <c r="E47" s="173"/>
+      <c r="F47" s="173"/>
+      <c r="G47" s="173"/>
+      <c r="H47" s="173"/>
+      <c r="I47" s="133"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="173"/>
+      <c r="B48" s="173"/>
+      <c r="C48" s="173"/>
+      <c r="D48" s="173"/>
+      <c r="E48" s="173"/>
+      <c r="F48" s="173"/>
+      <c r="G48" s="173"/>
+      <c r="H48" s="173"/>
+      <c r="I48" s="133"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="173"/>
+      <c r="B49" s="173"/>
+      <c r="C49" s="173"/>
+      <c r="D49" s="173"/>
+      <c r="E49" s="173"/>
+      <c r="F49" s="173"/>
+      <c r="G49" s="173"/>
+      <c r="H49" s="173"/>
+      <c r="I49" s="133"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="124"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="133"/>
+    </row>
+    <row r="51" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A51" s="187" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="187"/>
+      <c r="C51" s="187"/>
+      <c r="D51" s="187"/>
+      <c r="E51" s="187"/>
+      <c r="F51" s="187"/>
+      <c r="G51" s="187"/>
+      <c r="H51" s="187"/>
+      <c r="I51" s="132"/>
+    </row>
+    <row r="52" spans="1:9" ht="14.25" customHeight="1">
+      <c r="A52" s="187"/>
+      <c r="B52" s="187"/>
+      <c r="C52" s="187"/>
+      <c r="D52" s="187"/>
+      <c r="E52" s="187"/>
+      <c r="F52" s="187"/>
+      <c r="G52" s="187"/>
+      <c r="H52" s="187"/>
+      <c r="I52" s="132"/>
+    </row>
+    <row r="53" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A53" s="187" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="187"/>
+      <c r="C53" s="187"/>
+      <c r="D53" s="187"/>
+      <c r="E53" s="187"/>
+      <c r="F53" s="187"/>
+      <c r="G53" s="187"/>
+      <c r="H53" s="187"/>
+      <c r="I53" s="132"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="187"/>
+      <c r="B54" s="187"/>
+      <c r="C54" s="187"/>
+      <c r="D54" s="187"/>
+      <c r="E54" s="187"/>
+      <c r="F54" s="187"/>
+      <c r="G54" s="187"/>
+      <c r="H54" s="187"/>
+      <c r="I54" s="132"/>
+    </row>
+    <row r="55" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A55" s="200" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="200"/>
+      <c r="C55" s="200"/>
+      <c r="D55" s="200"/>
+      <c r="E55" s="200"/>
+      <c r="F55" s="200"/>
+      <c r="G55" s="200"/>
+      <c r="H55" s="200"/>
+      <c r="I55" s="129"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="129"/>
+      <c r="H56" s="129"/>
+      <c r="I56" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A37:H38"/>
+    <mergeCell ref="A40:H45"/>
+    <mergeCell ref="A46:H49"/>
+    <mergeCell ref="A51:H52"/>
+    <mergeCell ref="A53:H54"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" style="126" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="128" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="127" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="128" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="127" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="128" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="127" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="126" customWidth="1"/>
+    <col min="9" max="256" width="9.140625" style="126"/>
+    <col min="257" max="257" width="17.7109375" style="126" customWidth="1"/>
+    <col min="258" max="263" width="10.7109375" style="126" customWidth="1"/>
+    <col min="264" max="264" width="9.140625" style="126" customWidth="1"/>
+    <col min="265" max="512" width="9.140625" style="126"/>
+    <col min="513" max="513" width="17.7109375" style="126" customWidth="1"/>
+    <col min="514" max="519" width="10.7109375" style="126" customWidth="1"/>
+    <col min="520" max="520" width="9.140625" style="126" customWidth="1"/>
+    <col min="521" max="768" width="9.140625" style="126"/>
+    <col min="769" max="769" width="17.7109375" style="126" customWidth="1"/>
+    <col min="770" max="775" width="10.7109375" style="126" customWidth="1"/>
+    <col min="776" max="776" width="9.140625" style="126" customWidth="1"/>
+    <col min="777" max="1024" width="9.140625" style="126"/>
+    <col min="1025" max="1025" width="17.7109375" style="126" customWidth="1"/>
+    <col min="1026" max="1031" width="10.7109375" style="126" customWidth="1"/>
+    <col min="1032" max="1032" width="9.140625" style="126" customWidth="1"/>
+    <col min="1033" max="1280" width="9.140625" style="126"/>
+    <col min="1281" max="1281" width="17.7109375" style="126" customWidth="1"/>
+    <col min="1282" max="1287" width="10.7109375" style="126" customWidth="1"/>
+    <col min="1288" max="1288" width="9.140625" style="126" customWidth="1"/>
+    <col min="1289" max="1536" width="9.140625" style="126"/>
+    <col min="1537" max="1537" width="17.7109375" style="126" customWidth="1"/>
+    <col min="1538" max="1543" width="10.7109375" style="126" customWidth="1"/>
+    <col min="1544" max="1544" width="9.140625" style="126" customWidth="1"/>
+    <col min="1545" max="1792" width="9.140625" style="126"/>
+    <col min="1793" max="1793" width="17.7109375" style="126" customWidth="1"/>
+    <col min="1794" max="1799" width="10.7109375" style="126" customWidth="1"/>
+    <col min="1800" max="1800" width="9.140625" style="126" customWidth="1"/>
+    <col min="1801" max="2048" width="9.140625" style="126"/>
+    <col min="2049" max="2049" width="17.7109375" style="126" customWidth="1"/>
+    <col min="2050" max="2055" width="10.7109375" style="126" customWidth="1"/>
+    <col min="2056" max="2056" width="9.140625" style="126" customWidth="1"/>
+    <col min="2057" max="2304" width="9.140625" style="126"/>
+    <col min="2305" max="2305" width="17.7109375" style="126" customWidth="1"/>
+    <col min="2306" max="2311" width="10.7109375" style="126" customWidth="1"/>
+    <col min="2312" max="2312" width="9.140625" style="126" customWidth="1"/>
+    <col min="2313" max="2560" width="9.140625" style="126"/>
+    <col min="2561" max="2561" width="17.7109375" style="126" customWidth="1"/>
+    <col min="2562" max="2567" width="10.7109375" style="126" customWidth="1"/>
+    <col min="2568" max="2568" width="9.140625" style="126" customWidth="1"/>
+    <col min="2569" max="2816" width="9.140625" style="126"/>
+    <col min="2817" max="2817" width="17.7109375" style="126" customWidth="1"/>
+    <col min="2818" max="2823" width="10.7109375" style="126" customWidth="1"/>
+    <col min="2824" max="2824" width="9.140625" style="126" customWidth="1"/>
+    <col min="2825" max="3072" width="9.140625" style="126"/>
+    <col min="3073" max="3073" width="17.7109375" style="126" customWidth="1"/>
+    <col min="3074" max="3079" width="10.7109375" style="126" customWidth="1"/>
+    <col min="3080" max="3080" width="9.140625" style="126" customWidth="1"/>
+    <col min="3081" max="3328" width="9.140625" style="126"/>
+    <col min="3329" max="3329" width="17.7109375" style="126" customWidth="1"/>
+    <col min="3330" max="3335" width="10.7109375" style="126" customWidth="1"/>
+    <col min="3336" max="3336" width="9.140625" style="126" customWidth="1"/>
+    <col min="3337" max="3584" width="9.140625" style="126"/>
+    <col min="3585" max="3585" width="17.7109375" style="126" customWidth="1"/>
+    <col min="3586" max="3591" width="10.7109375" style="126" customWidth="1"/>
+    <col min="3592" max="3592" width="9.140625" style="126" customWidth="1"/>
+    <col min="3593" max="3840" width="9.140625" style="126"/>
+    <col min="3841" max="3841" width="17.7109375" style="126" customWidth="1"/>
+    <col min="3842" max="3847" width="10.7109375" style="126" customWidth="1"/>
+    <col min="3848" max="3848" width="9.140625" style="126" customWidth="1"/>
+    <col min="3849" max="4096" width="9.140625" style="126"/>
+    <col min="4097" max="4097" width="17.7109375" style="126" customWidth="1"/>
+    <col min="4098" max="4103" width="10.7109375" style="126" customWidth="1"/>
+    <col min="4104" max="4104" width="9.140625" style="126" customWidth="1"/>
+    <col min="4105" max="4352" width="9.140625" style="126"/>
+    <col min="4353" max="4353" width="17.7109375" style="126" customWidth="1"/>
+    <col min="4354" max="4359" width="10.7109375" style="126" customWidth="1"/>
+    <col min="4360" max="4360" width="9.140625" style="126" customWidth="1"/>
+    <col min="4361" max="4608" width="9.140625" style="126"/>
+    <col min="4609" max="4609" width="17.7109375" style="126" customWidth="1"/>
+    <col min="4610" max="4615" width="10.7109375" style="126" customWidth="1"/>
+    <col min="4616" max="4616" width="9.140625" style="126" customWidth="1"/>
+    <col min="4617" max="4864" width="9.140625" style="126"/>
+    <col min="4865" max="4865" width="17.7109375" style="126" customWidth="1"/>
+    <col min="4866" max="4871" width="10.7109375" style="126" customWidth="1"/>
+    <col min="4872" max="4872" width="9.140625" style="126" customWidth="1"/>
+    <col min="4873" max="5120" width="9.140625" style="126"/>
+    <col min="5121" max="5121" width="17.7109375" style="126" customWidth="1"/>
+    <col min="5122" max="5127" width="10.7109375" style="126" customWidth="1"/>
+    <col min="5128" max="5128" width="9.140625" style="126" customWidth="1"/>
+    <col min="5129" max="5376" width="9.140625" style="126"/>
+    <col min="5377" max="5377" width="17.7109375" style="126" customWidth="1"/>
+    <col min="5378" max="5383" width="10.7109375" style="126" customWidth="1"/>
+    <col min="5384" max="5384" width="9.140625" style="126" customWidth="1"/>
+    <col min="5385" max="5632" width="9.140625" style="126"/>
+    <col min="5633" max="5633" width="17.7109375" style="126" customWidth="1"/>
+    <col min="5634" max="5639" width="10.7109375" style="126" customWidth="1"/>
+    <col min="5640" max="5640" width="9.140625" style="126" customWidth="1"/>
+    <col min="5641" max="5888" width="9.140625" style="126"/>
+    <col min="5889" max="5889" width="17.7109375" style="126" customWidth="1"/>
+    <col min="5890" max="5895" width="10.7109375" style="126" customWidth="1"/>
+    <col min="5896" max="5896" width="9.140625" style="126" customWidth="1"/>
+    <col min="5897" max="6144" width="9.140625" style="126"/>
+    <col min="6145" max="6145" width="17.7109375" style="126" customWidth="1"/>
+    <col min="6146" max="6151" width="10.7109375" style="126" customWidth="1"/>
+    <col min="6152" max="6152" width="9.140625" style="126" customWidth="1"/>
+    <col min="6153" max="6400" width="9.140625" style="126"/>
+    <col min="6401" max="6401" width="17.7109375" style="126" customWidth="1"/>
+    <col min="6402" max="6407" width="10.7109375" style="126" customWidth="1"/>
+    <col min="6408" max="6408" width="9.140625" style="126" customWidth="1"/>
+    <col min="6409" max="6656" width="9.140625" style="126"/>
+    <col min="6657" max="6657" width="17.7109375" style="126" customWidth="1"/>
+    <col min="6658" max="6663" width="10.7109375" style="126" customWidth="1"/>
+    <col min="6664" max="6664" width="9.140625" style="126" customWidth="1"/>
+    <col min="6665" max="6912" width="9.140625" style="126"/>
+    <col min="6913" max="6913" width="17.7109375" style="126" customWidth="1"/>
+    <col min="6914" max="6919" width="10.7109375" style="126" customWidth="1"/>
+    <col min="6920" max="6920" width="9.140625" style="126" customWidth="1"/>
+    <col min="6921" max="7168" width="9.140625" style="126"/>
+    <col min="7169" max="7169" width="17.7109375" style="126" customWidth="1"/>
+    <col min="7170" max="7175" width="10.7109375" style="126" customWidth="1"/>
+    <col min="7176" max="7176" width="9.140625" style="126" customWidth="1"/>
+    <col min="7177" max="7424" width="9.140625" style="126"/>
+    <col min="7425" max="7425" width="17.7109375" style="126" customWidth="1"/>
+    <col min="7426" max="7431" width="10.7109375" style="126" customWidth="1"/>
+    <col min="7432" max="7432" width="9.140625" style="126" customWidth="1"/>
+    <col min="7433" max="7680" width="9.140625" style="126"/>
+    <col min="7681" max="7681" width="17.7109375" style="126" customWidth="1"/>
+    <col min="7682" max="7687" width="10.7109375" style="126" customWidth="1"/>
+    <col min="7688" max="7688" width="9.140625" style="126" customWidth="1"/>
+    <col min="7689" max="7936" width="9.140625" style="126"/>
+    <col min="7937" max="7937" width="17.7109375" style="126" customWidth="1"/>
+    <col min="7938" max="7943" width="10.7109375" style="126" customWidth="1"/>
+    <col min="7944" max="7944" width="9.140625" style="126" customWidth="1"/>
+    <col min="7945" max="8192" width="9.140625" style="126"/>
+    <col min="8193" max="8193" width="17.7109375" style="126" customWidth="1"/>
+    <col min="8194" max="8199" width="10.7109375" style="126" customWidth="1"/>
+    <col min="8200" max="8200" width="9.140625" style="126" customWidth="1"/>
+    <col min="8201" max="8448" width="9.140625" style="126"/>
+    <col min="8449" max="8449" width="17.7109375" style="126" customWidth="1"/>
+    <col min="8450" max="8455" width="10.7109375" style="126" customWidth="1"/>
+    <col min="8456" max="8456" width="9.140625" style="126" customWidth="1"/>
+    <col min="8457" max="8704" width="9.140625" style="126"/>
+    <col min="8705" max="8705" width="17.7109375" style="126" customWidth="1"/>
+    <col min="8706" max="8711" width="10.7109375" style="126" customWidth="1"/>
+    <col min="8712" max="8712" width="9.140625" style="126" customWidth="1"/>
+    <col min="8713" max="8960" width="9.140625" style="126"/>
+    <col min="8961" max="8961" width="17.7109375" style="126" customWidth="1"/>
+    <col min="8962" max="8967" width="10.7109375" style="126" customWidth="1"/>
+    <col min="8968" max="8968" width="9.140625" style="126" customWidth="1"/>
+    <col min="8969" max="9216" width="9.140625" style="126"/>
+    <col min="9217" max="9217" width="17.7109375" style="126" customWidth="1"/>
+    <col min="9218" max="9223" width="10.7109375" style="126" customWidth="1"/>
+    <col min="9224" max="9224" width="9.140625" style="126" customWidth="1"/>
+    <col min="9225" max="9472" width="9.140625" style="126"/>
+    <col min="9473" max="9473" width="17.7109375" style="126" customWidth="1"/>
+    <col min="9474" max="9479" width="10.7109375" style="126" customWidth="1"/>
+    <col min="9480" max="9480" width="9.140625" style="126" customWidth="1"/>
+    <col min="9481" max="9728" width="9.140625" style="126"/>
+    <col min="9729" max="9729" width="17.7109375" style="126" customWidth="1"/>
+    <col min="9730" max="9735" width="10.7109375" style="126" customWidth="1"/>
+    <col min="9736" max="9736" width="9.140625" style="126" customWidth="1"/>
+    <col min="9737" max="9984" width="9.140625" style="126"/>
+    <col min="9985" max="9985" width="17.7109375" style="126" customWidth="1"/>
+    <col min="9986" max="9991" width="10.7109375" style="126" customWidth="1"/>
+    <col min="9992" max="9992" width="9.140625" style="126" customWidth="1"/>
+    <col min="9993" max="10240" width="9.140625" style="126"/>
+    <col min="10241" max="10241" width="17.7109375" style="126" customWidth="1"/>
+    <col min="10242" max="10247" width="10.7109375" style="126" customWidth="1"/>
+    <col min="10248" max="10248" width="9.140625" style="126" customWidth="1"/>
+    <col min="10249" max="10496" width="9.140625" style="126"/>
+    <col min="10497" max="10497" width="17.7109375" style="126" customWidth="1"/>
+    <col min="10498" max="10503" width="10.7109375" style="126" customWidth="1"/>
+    <col min="10504" max="10504" width="9.140625" style="126" customWidth="1"/>
+    <col min="10505" max="10752" width="9.140625" style="126"/>
+    <col min="10753" max="10753" width="17.7109375" style="126" customWidth="1"/>
+    <col min="10754" max="10759" width="10.7109375" style="126" customWidth="1"/>
+    <col min="10760" max="10760" width="9.140625" style="126" customWidth="1"/>
+    <col min="10761" max="11008" width="9.140625" style="126"/>
+    <col min="11009" max="11009" width="17.7109375" style="126" customWidth="1"/>
+    <col min="11010" max="11015" width="10.7109375" style="126" customWidth="1"/>
+    <col min="11016" max="11016" width="9.140625" style="126" customWidth="1"/>
+    <col min="11017" max="11264" width="9.140625" style="126"/>
+    <col min="11265" max="11265" width="17.7109375" style="126" customWidth="1"/>
+    <col min="11266" max="11271" width="10.7109375" style="126" customWidth="1"/>
+    <col min="11272" max="11272" width="9.140625" style="126" customWidth="1"/>
+    <col min="11273" max="11520" width="9.140625" style="126"/>
+    <col min="11521" max="11521" width="17.7109375" style="126" customWidth="1"/>
+    <col min="11522" max="11527" width="10.7109375" style="126" customWidth="1"/>
+    <col min="11528" max="11528" width="9.140625" style="126" customWidth="1"/>
+    <col min="11529" max="11776" width="9.140625" style="126"/>
+    <col min="11777" max="11777" width="17.7109375" style="126" customWidth="1"/>
+    <col min="11778" max="11783" width="10.7109375" style="126" customWidth="1"/>
+    <col min="11784" max="11784" width="9.140625" style="126" customWidth="1"/>
+    <col min="11785" max="12032" width="9.140625" style="126"/>
+    <col min="12033" max="12033" width="17.7109375" style="126" customWidth="1"/>
+    <col min="12034" max="12039" width="10.7109375" style="126" customWidth="1"/>
+    <col min="12040" max="12040" width="9.140625" style="126" customWidth="1"/>
+    <col min="12041" max="12288" width="9.140625" style="126"/>
+    <col min="12289" max="12289" width="17.7109375" style="126" customWidth="1"/>
+    <col min="12290" max="12295" width="10.7109375" style="126" customWidth="1"/>
+    <col min="12296" max="12296" width="9.140625" style="126" customWidth="1"/>
+    <col min="12297" max="12544" width="9.140625" style="126"/>
+    <col min="12545" max="12545" width="17.7109375" style="126" customWidth="1"/>
+    <col min="12546" max="12551" width="10.7109375" style="126" customWidth="1"/>
+    <col min="12552" max="12552" width="9.140625" style="126" customWidth="1"/>
+    <col min="12553" max="12800" width="9.140625" style="126"/>
+    <col min="12801" max="12801" width="17.7109375" style="126" customWidth="1"/>
+    <col min="12802" max="12807" width="10.7109375" style="126" customWidth="1"/>
+    <col min="12808" max="12808" width="9.140625" style="126" customWidth="1"/>
+    <col min="12809" max="13056" width="9.140625" style="126"/>
+    <col min="13057" max="13057" width="17.7109375" style="126" customWidth="1"/>
+    <col min="13058" max="13063" width="10.7109375" style="126" customWidth="1"/>
+    <col min="13064" max="13064" width="9.140625" style="126" customWidth="1"/>
+    <col min="13065" max="13312" width="9.140625" style="126"/>
+    <col min="13313" max="13313" width="17.7109375" style="126" customWidth="1"/>
+    <col min="13314" max="13319" width="10.7109375" style="126" customWidth="1"/>
+    <col min="13320" max="13320" width="9.140625" style="126" customWidth="1"/>
+    <col min="13321" max="13568" width="9.140625" style="126"/>
+    <col min="13569" max="13569" width="17.7109375" style="126" customWidth="1"/>
+    <col min="13570" max="13575" width="10.7109375" style="126" customWidth="1"/>
+    <col min="13576" max="13576" width="9.140625" style="126" customWidth="1"/>
+    <col min="13577" max="13824" width="9.140625" style="126"/>
+    <col min="13825" max="13825" width="17.7109375" style="126" customWidth="1"/>
+    <col min="13826" max="13831" width="10.7109375" style="126" customWidth="1"/>
+    <col min="13832" max="13832" width="9.140625" style="126" customWidth="1"/>
+    <col min="13833" max="14080" width="9.140625" style="126"/>
+    <col min="14081" max="14081" width="17.7109375" style="126" customWidth="1"/>
+    <col min="14082" max="14087" width="10.7109375" style="126" customWidth="1"/>
+    <col min="14088" max="14088" width="9.140625" style="126" customWidth="1"/>
+    <col min="14089" max="14336" width="9.140625" style="126"/>
+    <col min="14337" max="14337" width="17.7109375" style="126" customWidth="1"/>
+    <col min="14338" max="14343" width="10.7109375" style="126" customWidth="1"/>
+    <col min="14344" max="14344" width="9.140625" style="126" customWidth="1"/>
+    <col min="14345" max="14592" width="9.140625" style="126"/>
+    <col min="14593" max="14593" width="17.7109375" style="126" customWidth="1"/>
+    <col min="14594" max="14599" width="10.7109375" style="126" customWidth="1"/>
+    <col min="14600" max="14600" width="9.140625" style="126" customWidth="1"/>
+    <col min="14601" max="14848" width="9.140625" style="126"/>
+    <col min="14849" max="14849" width="17.7109375" style="126" customWidth="1"/>
+    <col min="14850" max="14855" width="10.7109375" style="126" customWidth="1"/>
+    <col min="14856" max="14856" width="9.140625" style="126" customWidth="1"/>
+    <col min="14857" max="15104" width="9.140625" style="126"/>
+    <col min="15105" max="15105" width="17.7109375" style="126" customWidth="1"/>
+    <col min="15106" max="15111" width="10.7109375" style="126" customWidth="1"/>
+    <col min="15112" max="15112" width="9.140625" style="126" customWidth="1"/>
+    <col min="15113" max="15360" width="9.140625" style="126"/>
+    <col min="15361" max="15361" width="17.7109375" style="126" customWidth="1"/>
+    <col min="15362" max="15367" width="10.7109375" style="126" customWidth="1"/>
+    <col min="15368" max="15368" width="9.140625" style="126" customWidth="1"/>
+    <col min="15369" max="15616" width="9.140625" style="126"/>
+    <col min="15617" max="15617" width="17.7109375" style="126" customWidth="1"/>
+    <col min="15618" max="15623" width="10.7109375" style="126" customWidth="1"/>
+    <col min="15624" max="15624" width="9.140625" style="126" customWidth="1"/>
+    <col min="15625" max="15872" width="9.140625" style="126"/>
+    <col min="15873" max="15873" width="17.7109375" style="126" customWidth="1"/>
+    <col min="15874" max="15879" width="10.7109375" style="126" customWidth="1"/>
+    <col min="15880" max="15880" width="9.140625" style="126" customWidth="1"/>
+    <col min="15881" max="16128" width="9.140625" style="126"/>
+    <col min="16129" max="16129" width="17.7109375" style="126" customWidth="1"/>
+    <col min="16130" max="16135" width="10.7109375" style="126" customWidth="1"/>
+    <col min="16136" max="16136" width="9.140625" style="126" customWidth="1"/>
+    <col min="16137" max="16384" width="9.140625" style="126"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A2" s="200" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="122" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A5" s="175" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="202" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="203"/>
+      <c r="D5" s="202" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="203"/>
+      <c r="F5" s="202" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="204"/>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A6" s="201"/>
+      <c r="B6" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="149" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="149" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="147" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A7" s="146" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="145">
+        <v>330632</v>
+      </c>
+      <c r="C7" s="144">
+        <v>100</v>
+      </c>
+      <c r="D7" s="145">
+        <v>163400</v>
+      </c>
+      <c r="E7" s="144">
+        <v>100</v>
+      </c>
+      <c r="F7" s="145">
+        <v>167232</v>
+      </c>
+      <c r="G7" s="144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A8" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="141">
+        <v>18473</v>
+      </c>
+      <c r="C8" s="140">
+        <v>5.6</v>
+      </c>
+      <c r="D8" s="141">
+        <v>9441</v>
+      </c>
+      <c r="E8" s="140">
+        <v>5.8</v>
+      </c>
+      <c r="F8" s="141">
+        <v>9032</v>
+      </c>
+      <c r="G8" s="140">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A9" s="142" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="141">
+        <v>19929</v>
+      </c>
+      <c r="C9" s="140">
+        <v>6</v>
+      </c>
+      <c r="D9" s="141">
+        <v>10193</v>
+      </c>
+      <c r="E9" s="140">
+        <v>6.2</v>
+      </c>
+      <c r="F9" s="141">
+        <v>9737</v>
+      </c>
+      <c r="G9" s="140">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A10" s="142" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="141">
+        <v>20698</v>
+      </c>
+      <c r="C10" s="140">
+        <v>6.3</v>
+      </c>
+      <c r="D10" s="141">
+        <v>10618</v>
+      </c>
+      <c r="E10" s="140">
+        <v>6.5</v>
+      </c>
+      <c r="F10" s="141">
+        <v>10080</v>
+      </c>
+      <c r="G10" s="140">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A11" s="142" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="141">
+        <v>21577</v>
+      </c>
+      <c r="C11" s="140">
+        <v>6.5</v>
+      </c>
+      <c r="D11" s="141">
+        <v>10978</v>
+      </c>
+      <c r="E11" s="140">
+        <v>6.7</v>
+      </c>
+      <c r="F11" s="141">
+        <v>10599</v>
+      </c>
+      <c r="G11" s="140">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A12" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="141">
+        <v>22281</v>
+      </c>
+      <c r="C12" s="140">
+        <v>6.7</v>
+      </c>
+      <c r="D12" s="141">
+        <v>11233</v>
+      </c>
+      <c r="E12" s="140">
+        <v>6.9</v>
+      </c>
+      <c r="F12" s="141">
+        <v>11048</v>
+      </c>
+      <c r="G12" s="140">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A13" s="142" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="141">
+        <v>21788</v>
+      </c>
+      <c r="C13" s="140">
+        <v>6.6</v>
+      </c>
+      <c r="D13" s="141">
+        <v>11037</v>
+      </c>
+      <c r="E13" s="140">
+        <v>6.8</v>
+      </c>
+      <c r="F13" s="141">
+        <v>10751</v>
+      </c>
+      <c r="G13" s="140">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A14" s="142" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="141">
+        <v>23126</v>
+      </c>
+      <c r="C14" s="140">
+        <v>7</v>
+      </c>
+      <c r="D14" s="141">
+        <v>11640</v>
+      </c>
+      <c r="E14" s="140">
+        <v>7.1</v>
+      </c>
+      <c r="F14" s="143">
+        <v>11485</v>
+      </c>
+      <c r="G14" s="140">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A15" s="142" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="141">
+        <v>22178</v>
+      </c>
+      <c r="C15" s="140">
+        <v>6.7</v>
+      </c>
+      <c r="D15" s="141">
+        <v>11210</v>
+      </c>
+      <c r="E15" s="140">
+        <v>6.9</v>
+      </c>
+      <c r="F15" s="141">
+        <v>10968</v>
+      </c>
+      <c r="G15" s="140">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A16" s="142" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="141">
+        <v>21309</v>
+      </c>
+      <c r="C16" s="140">
+        <v>6.4</v>
+      </c>
+      <c r="D16" s="141">
+        <v>10616</v>
+      </c>
+      <c r="E16" s="140">
+        <v>6.5</v>
+      </c>
+      <c r="F16" s="141">
+        <v>10693</v>
+      </c>
+      <c r="G16" s="140">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A17" s="142" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="141">
+        <v>19537</v>
+      </c>
+      <c r="C17" s="140">
+        <v>5.9</v>
+      </c>
+      <c r="D17" s="141">
+        <v>9747</v>
+      </c>
+      <c r="E17" s="140">
+        <v>6</v>
+      </c>
+      <c r="F17" s="141">
+        <v>9789</v>
+      </c>
+      <c r="G17" s="140">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A18" s="139" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="141">
+        <v>20465</v>
+      </c>
+      <c r="C18" s="140">
+        <v>6.2</v>
+      </c>
+      <c r="D18" s="141">
+        <v>10158</v>
+      </c>
+      <c r="E18" s="140">
+        <v>6.2</v>
+      </c>
+      <c r="F18" s="141">
+        <v>10307</v>
+      </c>
+      <c r="G18" s="140">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A19" s="139" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="141">
+        <v>20380</v>
+      </c>
+      <c r="C19" s="140">
+        <v>6.2</v>
+      </c>
+      <c r="D19" s="141">
+        <v>9991</v>
+      </c>
+      <c r="E19" s="140">
+        <v>6.1</v>
+      </c>
+      <c r="F19" s="141">
+        <v>10389</v>
+      </c>
+      <c r="G19" s="140">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A20" s="139" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="141">
+        <v>21007</v>
+      </c>
+      <c r="C20" s="140">
+        <v>6.4</v>
+      </c>
+      <c r="D20" s="141">
+        <v>10234</v>
+      </c>
+      <c r="E20" s="140">
+        <v>6.3</v>
+      </c>
+      <c r="F20" s="141">
+        <v>10773</v>
+      </c>
+      <c r="G20" s="140">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A21" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="141">
+        <v>18417</v>
+      </c>
+      <c r="C21" s="140">
+        <v>5.6</v>
+      </c>
+      <c r="D21" s="141">
+        <v>8633</v>
+      </c>
+      <c r="E21" s="140">
+        <v>5.3</v>
+      </c>
+      <c r="F21" s="141">
+        <v>9783</v>
+      </c>
+      <c r="G21" s="140">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A22" s="139" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="141">
+        <v>15599</v>
+      </c>
+      <c r="C22" s="140">
+        <v>4.7</v>
+      </c>
+      <c r="D22" s="141">
+        <v>7369</v>
+      </c>
+      <c r="E22" s="140">
+        <v>4.5</v>
+      </c>
+      <c r="F22" s="141">
+        <v>8230</v>
+      </c>
+      <c r="G22" s="140">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A23" s="139" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="141">
+        <v>10851</v>
+      </c>
+      <c r="C23" s="140">
+        <v>3.3</v>
+      </c>
+      <c r="D23" s="141">
+        <v>4966</v>
+      </c>
+      <c r="E23" s="140">
+        <v>3</v>
+      </c>
+      <c r="F23" s="141">
+        <v>5885</v>
+      </c>
+      <c r="G23" s="140">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A24" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="141">
+        <v>6970</v>
+      </c>
+      <c r="C24" s="140">
+        <v>2.1</v>
+      </c>
+      <c r="D24" s="141">
+        <v>2959</v>
+      </c>
+      <c r="E24" s="140">
+        <v>1.8</v>
+      </c>
+      <c r="F24" s="141">
+        <v>4011</v>
+      </c>
+      <c r="G24" s="140">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A25" s="139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="141">
+        <v>6047</v>
+      </c>
+      <c r="C25" s="140">
+        <v>1.8</v>
+      </c>
+      <c r="D25" s="141">
+        <v>2375</v>
+      </c>
+      <c r="E25" s="140">
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="141">
+        <v>3672</v>
+      </c>
+      <c r="G25" s="140">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A26" s="139"/>
+      <c r="B26" s="141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="141" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="140" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="141" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A27" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="141">
+        <v>59101</v>
+      </c>
+      <c r="C27" s="140">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D27" s="141">
+        <v>30252</v>
+      </c>
+      <c r="E27" s="140">
+        <v>18.5</v>
+      </c>
+      <c r="F27" s="141">
+        <v>28849</v>
+      </c>
+      <c r="G27" s="140">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A28" s="139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="141">
+        <v>13399</v>
+      </c>
+      <c r="C28" s="140">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D28" s="141">
+        <v>6725</v>
+      </c>
+      <c r="E28" s="140">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F28" s="141">
+        <v>6675</v>
+      </c>
+      <c r="G28" s="140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A29" s="139" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="141">
+        <v>12601</v>
+      </c>
+      <c r="C29" s="140">
+        <v>3.8</v>
+      </c>
+      <c r="D29" s="141">
+        <v>6579</v>
+      </c>
+      <c r="E29" s="140">
+        <v>4</v>
+      </c>
+      <c r="F29" s="141">
+        <v>6022</v>
+      </c>
+      <c r="G29" s="140">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A30" s="139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="141">
+        <v>106258</v>
+      </c>
+      <c r="C30" s="140">
+        <v>32.1</v>
+      </c>
+      <c r="D30" s="141">
+        <v>53410</v>
+      </c>
+      <c r="E30" s="140">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="F30" s="141">
+        <v>52847</v>
+      </c>
+      <c r="G30" s="140">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A31" s="139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="141">
+        <v>81389</v>
+      </c>
+      <c r="C31" s="140">
+        <v>24.6</v>
+      </c>
+      <c r="D31" s="141">
+        <v>40131</v>
+      </c>
+      <c r="E31" s="140">
+        <v>24.6</v>
+      </c>
+      <c r="F31" s="141">
+        <v>41258</v>
+      </c>
+      <c r="G31" s="140">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A32" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="141">
+        <v>57884</v>
+      </c>
+      <c r="C32" s="140">
+        <v>17.5</v>
+      </c>
+      <c r="D32" s="141">
+        <v>26303</v>
+      </c>
+      <c r="E32" s="140">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F32" s="141">
+        <v>31581</v>
+      </c>
+      <c r="G32" s="140">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A33" s="139"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="140"/>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A34" s="139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="138">
+        <v>38.9</v>
+      </c>
+      <c r="C34" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="138">
+        <v>37.9</v>
+      </c>
+      <c r="E34" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="138">
+        <v>40</v>
+      </c>
+      <c r="G34" s="137" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A35" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="136"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="135"/>
+    </row>
+    <row r="36" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A36" s="134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A37" s="205" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="205"/>
+      <c r="C37" s="205"/>
+      <c r="D37" s="205"/>
+      <c r="E37" s="205"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
+    </row>
+    <row r="38" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A38" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="123"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="122"/>
+    </row>
+    <row r="39" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A39" s="187" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="173"/>
+      <c r="C39" s="173"/>
+      <c r="D39" s="173"/>
+      <c r="E39" s="173"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="173"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="133"/>
+    </row>
+    <row r="40" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A40" s="173"/>
+      <c r="B40" s="173"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="133"/>
+    </row>
+    <row r="41" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A41" s="173"/>
+      <c r="B41" s="173"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="133"/>
+    </row>
+    <row r="42" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A42" s="173"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="133"/>
+    </row>
+    <row r="43" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A43" s="173"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="173"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="173"/>
+      <c r="G43" s="173"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="133"/>
+    </row>
+    <row r="44" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A44" s="173"/>
+      <c r="B44" s="173"/>
+      <c r="C44" s="173"/>
+      <c r="D44" s="173"/>
+      <c r="E44" s="173"/>
+      <c r="F44" s="173"/>
+      <c r="G44" s="173"/>
+      <c r="H44" s="173"/>
+      <c r="I44" s="133"/>
+    </row>
+    <row r="45" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A45" s="187" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" s="187"/>
+      <c r="C45" s="187"/>
+      <c r="D45" s="187"/>
+      <c r="E45" s="187"/>
+      <c r="F45" s="187"/>
+      <c r="G45" s="187"/>
+      <c r="H45" s="187"/>
+      <c r="I45" s="133"/>
+    </row>
+    <row r="46" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A46" s="187"/>
+      <c r="B46" s="187"/>
+      <c r="C46" s="187"/>
+      <c r="D46" s="187"/>
+      <c r="E46" s="187"/>
+      <c r="F46" s="187"/>
+      <c r="G46" s="187"/>
+      <c r="H46" s="187"/>
+      <c r="I46" s="133"/>
+    </row>
+    <row r="47" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A47" s="187"/>
+      <c r="B47" s="187"/>
+      <c r="C47" s="187"/>
+      <c r="D47" s="187"/>
+      <c r="E47" s="187"/>
+      <c r="F47" s="187"/>
+      <c r="G47" s="187"/>
+      <c r="H47" s="187"/>
+      <c r="I47" s="133"/>
+    </row>
+    <row r="48" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A48" s="124"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="133"/>
+    </row>
+    <row r="49" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A49" s="187" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="187"/>
+      <c r="C49" s="187"/>
+      <c r="D49" s="187"/>
+      <c r="E49" s="187"/>
+      <c r="F49" s="187"/>
+      <c r="G49" s="187"/>
+      <c r="H49" s="187"/>
+      <c r="I49" s="132"/>
+    </row>
+    <row r="50" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A50" s="187"/>
+      <c r="B50" s="187"/>
+      <c r="C50" s="187"/>
+      <c r="D50" s="187"/>
+      <c r="E50" s="187"/>
+      <c r="F50" s="187"/>
+      <c r="G50" s="187"/>
+      <c r="H50" s="187"/>
+      <c r="I50" s="132"/>
+    </row>
+    <row r="51" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A51" s="187" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" s="187"/>
+      <c r="C51" s="187"/>
+      <c r="D51" s="187"/>
+      <c r="E51" s="187"/>
+      <c r="F51" s="187"/>
+      <c r="G51" s="187"/>
+      <c r="H51" s="187"/>
+      <c r="I51" s="132"/>
+    </row>
+    <row r="52" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A52" s="187"/>
+      <c r="B52" s="187"/>
+      <c r="C52" s="187"/>
+      <c r="D52" s="187"/>
+      <c r="E52" s="187"/>
+      <c r="F52" s="187"/>
+      <c r="G52" s="187"/>
+      <c r="H52" s="187"/>
+      <c r="I52" s="132"/>
+    </row>
+    <row r="53" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A53" s="200" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" s="200"/>
+      <c r="C53" s="200"/>
+      <c r="D53" s="200"/>
+      <c r="E53" s="200"/>
+      <c r="F53" s="200"/>
+      <c r="G53" s="200"/>
+      <c r="H53" s="200"/>
+      <c r="I53" s="129"/>
+    </row>
+    <row r="54" spans="1:9" ht="12.75" customHeight="1">
+      <c r="A54" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="131"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="129"/>
+      <c r="I54" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A39:H44"/>
+    <mergeCell ref="A45:H47"/>
+    <mergeCell ref="A49:H50"/>
+    <mergeCell ref="A51:H52"/>
+    <mergeCell ref="A53:H53"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="91" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="54" max="7" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -13378,47 +15915,47 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="154" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1"/>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="133" t="s">
+      <c r="C5" s="162"/>
+      <c r="D5" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="133" t="s">
+      <c r="E5" s="162"/>
+      <c r="F5" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="135"/>
+      <c r="G5" s="163"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="132"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="84" t="s">
         <v>33</v>
       </c>
@@ -13750,22 +16287,22 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="120"/>
-      <c r="B21" s="136">
+      <c r="B21" s="165">
         <v>60730</v>
       </c>
-      <c r="C21" s="140">
+      <c r="C21" s="167">
         <v>20.9</v>
       </c>
-      <c r="D21" s="136">
+      <c r="D21" s="165">
         <v>31063</v>
       </c>
-      <c r="E21" s="140">
+      <c r="E21" s="167">
         <v>21.8</v>
       </c>
-      <c r="F21" s="136">
+      <c r="F21" s="165">
         <v>29667</v>
       </c>
-      <c r="G21" s="138">
+      <c r="G21" s="169">
         <v>20</v>
       </c>
     </row>
@@ -13773,12 +16310,12 @@
       <c r="A22" s="116" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="139"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="170"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="116" t="s">
@@ -13907,28 +16444,28 @@
       <c r="B29" s="76"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
-      <c r="A30" s="125" t="s">
+      <c r="A30" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="126" t="s">
+      <c r="A32" s="154" t="s">
         <v>150</v>
       </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="164"/>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="75" t="s">
@@ -13963,7 +16500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -13991,47 +16528,47 @@
       <c r="G1" s="101"/>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="154" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1"/>
     <row r="5" spans="1:7" ht="18" customHeight="1">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="133" t="s">
+      <c r="C5" s="162"/>
+      <c r="D5" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="133" t="s">
+      <c r="E5" s="162"/>
+      <c r="F5" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="135"/>
+      <c r="G5" s="163"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="132"/>
+      <c r="A6" s="160"/>
       <c r="B6" s="84" t="s">
         <v>33</v>
       </c>
@@ -14532,28 +17069,28 @@
       <c r="B29" s="76"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A30" s="125" t="s">
+      <c r="A30" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A32" s="126" t="s">
+      <c r="A32" s="154" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="126"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="75" t="s">
@@ -14607,26 +17144,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="173" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="36"/>
@@ -14638,24 +17175,24 @@
       <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="149" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="149" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="179"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="148"/>
+      <c r="A6" s="176"/>
       <c r="B6" s="30" t="s">
         <v>33</v>
       </c>
@@ -15316,15 +17853,15 @@
       <c r="G35" s="13"/>
     </row>
     <row r="37" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="14.25" customHeight="1">
@@ -15338,15 +17875,15 @@
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="30" customHeight="1">
-      <c r="A39" s="144" t="s">
+      <c r="A39" s="172" t="s">
         <v>153</v>
       </c>
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="144"/>
+      <c r="B39" s="172"/>
+      <c r="C39" s="172"/>
+      <c r="D39" s="172"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="172"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8">
@@ -15407,26 +17944,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="181" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
     </row>
     <row r="3" spans="1:8" ht="14.1" customHeight="1">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="36"/>
@@ -15438,24 +17975,24 @@
       <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="149" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="149" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="179"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="148"/>
+      <c r="A6" s="176"/>
       <c r="B6" s="30" t="s">
         <v>33</v>
       </c>
@@ -16116,15 +18653,15 @@
       <c r="G35" s="13"/>
     </row>
     <row r="37" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="14.25" customHeight="1">
@@ -16138,15 +18675,15 @@
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="30" customHeight="1">
-      <c r="A39" s="152" t="s">
+      <c r="A39" s="180" t="s">
         <v>143</v>
       </c>
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="144"/>
+      <c r="B39" s="172"/>
+      <c r="C39" s="172"/>
+      <c r="D39" s="172"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="172"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8">
@@ -16207,26 +18744,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="181" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
     </row>
     <row r="3" spans="1:8" ht="14.1" customHeight="1">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="173" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="36"/>
@@ -16238,24 +18775,24 @@
       <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="149" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="149" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="179"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="148"/>
+      <c r="A6" s="176"/>
       <c r="B6" s="30" t="s">
         <v>33</v>
       </c>
@@ -16928,15 +19465,15 @@
     </row>
     <row r="37" spans="1:8" ht="14.25" customHeight="1"/>
     <row r="38" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A38" s="143" t="s">
+      <c r="A38" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="143"/>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
+      <c r="B38" s="171"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="171"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="171"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="30" customHeight="1">
@@ -16950,16 +19487,16 @@
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="154" t="s">
+      <c r="A40" s="182" t="s">
         <v>156</v>
       </c>
-      <c r="B40" s="144"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="144"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="142"/>
+      <c r="B40" s="172"/>
+      <c r="C40" s="172"/>
+      <c r="D40" s="172"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="172"/>
+      <c r="H40" s="164"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="109" t="s">
@@ -17016,26 +19553,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="181" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="173" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="36"/>
@@ -17047,24 +19584,24 @@
       <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="149" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="149" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="179"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="148"/>
+      <c r="A6" s="176"/>
       <c r="B6" s="30" t="s">
         <v>33</v>
       </c>
@@ -17736,15 +20273,15 @@
       <c r="G36" s="13"/>
     </row>
     <row r="38" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A38" s="143" t="s">
+      <c r="A38" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="143"/>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
+      <c r="B38" s="171"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="171"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="171"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="14.25" customHeight="1">
@@ -17758,16 +20295,16 @@
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1">
-      <c r="A40" s="154" t="s">
+      <c r="A40" s="182" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="144"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="144"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="142"/>
+      <c r="B40" s="172"/>
+      <c r="C40" s="172"/>
+      <c r="D40" s="172"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="172"/>
+      <c r="H40" s="164"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="72" t="s">
@@ -17824,26 +20361,26 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="181" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
     </row>
     <row r="3" spans="1:8" ht="14.1" customHeight="1">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="A4" s="36"/>
@@ -17855,24 +20392,24 @@
       <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="149" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="150"/>
-      <c r="F5" s="149" t="s">
+      <c r="E5" s="178"/>
+      <c r="F5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="151"/>
+      <c r="G5" s="179"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="148"/>
+      <c r="A6" s="176"/>
       <c r="B6" s="30" t="s">
         <v>33</v>
       </c>
@@ -18538,15 +21075,15 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="143"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="14.25" customHeight="1">
@@ -18560,15 +21097,15 @@
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="30" customHeight="1">
-      <c r="A39" s="154" t="s">
+      <c r="A39" s="182" t="s">
         <v>134</v>
       </c>
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="144"/>
+      <c r="B39" s="172"/>
+      <c r="C39" s="172"/>
+      <c r="D39" s="172"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="172"/>
       <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8">
